--- a/orientationAnalysis.xlsx
+++ b/orientationAnalysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D357"/>
+  <dimension ref="A1:H363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,26 @@
           <t>averagePositivesPredictions</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>e1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>e2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>e3|e4</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>deubiquitylase</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -462,7 +482,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -470,6 +490,18 @@
       <c r="D2" t="n">
         <v>0.262124976155181</v>
       </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -478,7 +510,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -486,6 +518,18 @@
       <c r="D3" t="n">
         <v>0.1839021187430868</v>
       </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -494,7 +538,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -502,6 +546,18 @@
       <c r="D4" t="n">
         <v>0.6074563079235846</v>
       </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -510,7 +566,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -518,6 +574,18 @@
       <c r="D5" t="n">
         <v>0.1284056645152824</v>
       </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -526,7 +594,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -534,6 +602,18 @@
       <c r="D6" t="n">
         <v>0.2026855120435357</v>
       </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -542,7 +622,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -550,6 +630,18 @@
       <c r="D7" t="n">
         <v>0.1508603106873731</v>
       </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -558,7 +650,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -566,6 +658,18 @@
       <c r="D8" t="n">
         <v>0.3663098759949207</v>
       </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -574,7 +678,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -582,6 +686,18 @@
       <c r="D9" t="n">
         <v>0.1210828199796379</v>
       </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -590,7 +706,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -598,6 +714,18 @@
       <c r="D10" t="n">
         <v>0.1135075159060458</v>
       </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -606,7 +734,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -614,6 +742,18 @@
       <c r="D11" t="n">
         <v>0.3269996896386146</v>
       </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -622,7 +762,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -630,6 +770,18 @@
       <c r="D12" t="n">
         <v>0.2468969204596111</v>
       </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -638,7 +790,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -646,6 +798,18 @@
       <c r="D13" t="n">
         <v>0.3797160883744558</v>
       </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -654,7 +818,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -662,6 +826,18 @@
       <c r="D14" t="n">
         <v>0.2781296637515689</v>
       </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -670,7 +846,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -678,6 +854,18 @@
       <c r="D15" t="n">
         <v>0.3444076597690582</v>
       </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -686,7 +874,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -694,6 +882,18 @@
       <c r="D16" t="n">
         <v>0.1797296900923054</v>
       </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -702,7 +902,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -710,6 +910,18 @@
       <c r="D17" t="n">
         <v>0.2115187738090754</v>
       </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -718,7 +930,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -726,6 +938,18 @@
       <c r="D18" t="n">
         <v>0.09437200618221571</v>
       </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -734,7 +958,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -742,6 +966,18 @@
       <c r="D19" t="n">
         <v>0.4418366447310237</v>
       </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -750,7 +986,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -758,6 +994,18 @@
       <c r="D20" t="n">
         <v>0.3259930983185768</v>
       </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -766,7 +1014,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -774,6 +1022,18 @@
       <c r="D21" t="n">
         <v>0.2329377098516985</v>
       </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -782,7 +1042,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -790,6 +1050,18 @@
       <c r="D22" t="n">
         <v>0.1933557654878026</v>
       </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -798,7 +1070,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -806,6 +1078,18 @@
       <c r="D23" t="n">
         <v>0.05035387421958148</v>
       </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -814,7 +1098,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -822,6 +1106,18 @@
       <c r="D24" t="n">
         <v>0.254111164289972</v>
       </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -830,7 +1126,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -838,6 +1134,18 @@
       <c r="D25" t="n">
         <v>0.0639025800745003</v>
       </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -846,7 +1154,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -854,6 +1162,18 @@
       <c r="D26" t="n">
         <v>0.1921570185910572</v>
       </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -870,6 +1190,18 @@
       <c r="D27" t="n">
         <v>0.3769931336864829</v>
       </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -878,7 +1210,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -886,6 +1218,18 @@
       <c r="D28" t="n">
         <v>0.1788874079162876</v>
       </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -894,7 +1238,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -902,6 +1246,18 @@
       <c r="D29" t="n">
         <v>0.541943842576722</v>
       </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -910,7 +1266,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C30" t="b">
         <v>0</v>
@@ -918,6 +1274,18 @@
       <c r="D30" t="n">
         <v>0.07431435114186671</v>
       </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -926,7 +1294,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
@@ -934,6 +1302,18 @@
       <c r="D31" t="n">
         <v>0.55283305135866</v>
       </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -942,7 +1322,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
@@ -950,6 +1330,18 @@
       <c r="D32" t="n">
         <v>0.1723226511341003</v>
       </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -958,7 +1350,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C33" t="b">
         <v>0</v>
@@ -966,6 +1358,18 @@
       <c r="D33" t="n">
         <v>0.3305179852132614</v>
       </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -974,7 +1378,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C34" t="b">
         <v>0</v>
@@ -982,6 +1386,18 @@
       <c r="D34" t="n">
         <v>0.0671642805234744</v>
       </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -990,7 +1406,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
@@ -998,6 +1414,18 @@
       <c r="D35" t="n">
         <v>0.3291946243156086</v>
       </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1006,7 +1434,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C36" t="b">
         <v>0</v>
@@ -1014,6 +1442,18 @@
       <c r="D36" t="n">
         <v>0.315558004143991</v>
       </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1022,7 +1462,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C37" t="b">
         <v>0</v>
@@ -1030,6 +1470,18 @@
       <c r="D37" t="n">
         <v>0.1298861148718156</v>
       </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1038,7 +1490,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -1046,6 +1498,18 @@
       <c r="D38" t="n">
         <v>0.3675939324829314</v>
       </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1054,7 +1518,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
@@ -1062,6 +1526,18 @@
       <c r="D39" t="n">
         <v>0.05694271139800548</v>
       </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1070,7 +1546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" t="b">
         <v>0</v>
@@ -1078,6 +1554,18 @@
       <c r="D40" t="n">
         <v>0.2322553783241245</v>
       </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1086,7 +1574,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
@@ -1094,6 +1582,18 @@
       <c r="D41" t="n">
         <v>0.1842318333685398</v>
       </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1102,7 +1602,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C42" t="b">
         <v>0</v>
@@ -1110,6 +1610,18 @@
       <c r="D42" t="n">
         <v>0.06344607907036941</v>
       </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1118,7 +1630,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C43" t="b">
         <v>0</v>
@@ -1126,6 +1638,18 @@
       <c r="D43" t="n">
         <v>0.3105804515736444</v>
       </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1134,7 +1658,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44" t="b">
         <v>0</v>
@@ -1142,6 +1666,18 @@
       <c r="D44" t="n">
         <v>0.3650723528116941</v>
       </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1150,7 +1686,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C45" t="b">
         <v>0</v>
@@ -1158,6 +1694,18 @@
       <c r="D45" t="n">
         <v>0.6394489488818429</v>
       </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1166,7 +1714,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C46" t="b">
         <v>0</v>
@@ -1174,6 +1722,18 @@
       <c r="D46" t="n">
         <v>0.177376841727112</v>
       </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1182,7 +1742,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C47" t="b">
         <v>0</v>
@@ -1190,6 +1750,18 @@
       <c r="D47" t="n">
         <v>0.1721402792369618</v>
       </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1198,7 +1770,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48" t="b">
         <v>0</v>
@@ -1206,6 +1778,18 @@
       <c r="D48" t="n">
         <v>0.1009563766863374</v>
       </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1214,7 +1798,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C49" t="b">
         <v>0</v>
@@ -1222,6 +1806,18 @@
       <c r="D49" t="n">
         <v>0.1595415464705891</v>
       </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1230,7 +1826,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -1238,6 +1834,18 @@
       <c r="D50" t="n">
         <v>0.1991165715612863</v>
       </c>
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1246,7 +1854,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C51" t="b">
         <v>0</v>
@@ -1254,6 +1862,18 @@
       <c r="D51" t="n">
         <v>0.1553205733497937</v>
       </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1262,7 +1882,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C52" t="b">
         <v>0</v>
@@ -1270,6 +1890,18 @@
       <c r="D52" t="n">
         <v>0.2016443616400162</v>
       </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1278,7 +1910,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
@@ -1286,6 +1918,18 @@
       <c r="D53" t="n">
         <v>0.2316378460576137</v>
       </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1294,7 +1938,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
@@ -1302,6 +1946,18 @@
       <c r="D54" t="n">
         <v>0.23395767621696</v>
       </c>
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1310,7 +1966,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C55" t="b">
         <v>0</v>
@@ -1318,6 +1974,18 @@
       <c r="D55" t="n">
         <v>0.1113206585133938</v>
       </c>
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1326,7 +1994,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C56" t="b">
         <v>1</v>
@@ -1334,6 +2002,18 @@
       <c r="D56" t="n">
         <v>0.3116388698108494</v>
       </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1342,7 +2022,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C57" t="b">
         <v>0</v>
@@ -1350,6 +2030,18 @@
       <c r="D57" t="n">
         <v>0.05117429016778866</v>
       </c>
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -1358,7 +2050,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C58" t="b">
         <v>0</v>
@@ -1366,6 +2058,18 @@
       <c r="D58" t="n">
         <v>0.167974441498518</v>
       </c>
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -1382,6 +2086,18 @@
       <c r="D59" t="n">
         <v>0.6640822497152147</v>
       </c>
+      <c r="E59" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -1390,7 +2106,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C60" t="b">
         <v>0</v>
@@ -1398,6 +2114,18 @@
       <c r="D60" t="n">
         <v>0.2884954302691115</v>
       </c>
+      <c r="E60" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -1406,7 +2134,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C61" t="b">
         <v>0</v>
@@ -1414,6 +2142,18 @@
       <c r="D61" t="n">
         <v>0.1681721512987106</v>
       </c>
+      <c r="E61" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -1430,6 +2170,18 @@
       <c r="D62" t="n">
         <v>0.1137061992570037</v>
       </c>
+      <c r="E62" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" t="b">
+        <v>1</v>
+      </c>
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -1438,7 +2190,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C63" t="b">
         <v>1</v>
@@ -1446,6 +2198,18 @@
       <c r="D63" t="n">
         <v>0.3766606746724359</v>
       </c>
+      <c r="E63" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -1454,7 +2218,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C64" t="b">
         <v>1</v>
@@ -1462,6 +2226,18 @@
       <c r="D64" t="n">
         <v>0.1490190983749926</v>
       </c>
+      <c r="E64" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -1470,7 +2246,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
@@ -1478,6 +2254,18 @@
       <c r="D65" t="n">
         <v>0.2142646848698956</v>
       </c>
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -1486,7 +2274,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="b">
         <v>1</v>
@@ -1494,6 +2282,18 @@
       <c r="D66" t="n">
         <v>0.5140192725136876</v>
       </c>
+      <c r="E66" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -1510,6 +2310,18 @@
       <c r="D67" t="n">
         <v>0.1670127333407956</v>
       </c>
+      <c r="E67" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -1518,7 +2330,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="b">
         <v>1</v>
@@ -1526,6 +2338,18 @@
       <c r="D68" t="n">
         <v>0.3948245790659213</v>
       </c>
+      <c r="E68" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -1534,7 +2358,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
@@ -1542,6 +2366,18 @@
       <c r="D69" t="n">
         <v>0.2716612908989191</v>
       </c>
+      <c r="E69" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -1558,6 +2394,18 @@
       <c r="D70" t="n">
         <v>0.1191726930279401</v>
       </c>
+      <c r="E70" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" t="b">
+        <v>1</v>
+      </c>
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -1574,6 +2422,18 @@
       <c r="D71" t="n">
         <v>0.1136405845289119</v>
       </c>
+      <c r="E71" t="b">
+        <v>0</v>
+      </c>
+      <c r="F71" t="b">
+        <v>1</v>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -1582,7 +2442,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
@@ -1590,6 +2450,18 @@
       <c r="D72" t="n">
         <v>0.08042171162087471</v>
       </c>
+      <c r="E72" t="b">
+        <v>0</v>
+      </c>
+      <c r="F72" t="b">
+        <v>1</v>
+      </c>
+      <c r="G72" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -1598,7 +2470,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C73" t="b">
         <v>0</v>
@@ -1606,6 +2478,18 @@
       <c r="D73" t="n">
         <v>0.05478370992036966</v>
       </c>
+      <c r="E73" t="b">
+        <v>0</v>
+      </c>
+      <c r="F73" t="b">
+        <v>1</v>
+      </c>
+      <c r="G73" t="b">
+        <v>0</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -1622,6 +2506,18 @@
       <c r="D74" t="n">
         <v>0.1490463484078646</v>
       </c>
+      <c r="E74" t="b">
+        <v>0</v>
+      </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -1638,6 +2534,18 @@
       <c r="D75" t="n">
         <v>0.1777292438117521</v>
       </c>
+      <c r="E75" t="b">
+        <v>0</v>
+      </c>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+      <c r="G75" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -1646,7 +2554,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="b">
         <v>1</v>
@@ -1654,6 +2562,18 @@
       <c r="D76" t="n">
         <v>0.5658127592504024</v>
       </c>
+      <c r="E76" t="b">
+        <v>0</v>
+      </c>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+      <c r="G76" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -1662,7 +2582,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" t="b">
         <v>0</v>
@@ -1670,6 +2590,18 @@
       <c r="D77" t="n">
         <v>0.4877493723109365</v>
       </c>
+      <c r="E77" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+      <c r="G77" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -1678,7 +2610,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
@@ -1686,6 +2618,18 @@
       <c r="D78" t="n">
         <v>0.5434200198594796</v>
       </c>
+      <c r="E78" t="b">
+        <v>0</v>
+      </c>
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+      <c r="G78" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -1694,7 +2638,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C79" t="b">
         <v>1</v>
@@ -1702,6 +2646,18 @@
       <c r="D79" t="n">
         <v>0.163036805163886</v>
       </c>
+      <c r="E79" t="b">
+        <v>0</v>
+      </c>
+      <c r="F79" t="b">
+        <v>0</v>
+      </c>
+      <c r="G79" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -1710,7 +2666,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
@@ -1718,6 +2674,18 @@
       <c r="D80" t="n">
         <v>0.2082850295701064</v>
       </c>
+      <c r="E80" t="b">
+        <v>0</v>
+      </c>
+      <c r="F80" t="b">
+        <v>0</v>
+      </c>
+      <c r="G80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -1726,7 +2694,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
@@ -1734,6 +2702,18 @@
       <c r="D81" t="n">
         <v>0.104386046571581</v>
       </c>
+      <c r="E81" t="b">
+        <v>0</v>
+      </c>
+      <c r="F81" t="b">
+        <v>1</v>
+      </c>
+      <c r="G81" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -1742,7 +2722,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C82" t="b">
         <v>0</v>
@@ -1750,6 +2730,18 @@
       <c r="D82" t="n">
         <v>0.08144209502885739</v>
       </c>
+      <c r="E82" t="b">
+        <v>0</v>
+      </c>
+      <c r="F82" t="b">
+        <v>0</v>
+      </c>
+      <c r="G82" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -1758,7 +2750,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
@@ -1766,6 +2758,18 @@
       <c r="D83" t="n">
         <v>0.2743267792102415</v>
       </c>
+      <c r="E83" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83" t="b">
+        <v>0</v>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -1774,7 +2778,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C84" t="b">
         <v>1</v>
@@ -1782,6 +2786,18 @@
       <c r="D84" t="n">
         <v>0.348307977289413</v>
       </c>
+      <c r="E84" t="b">
+        <v>0</v>
+      </c>
+      <c r="F84" t="b">
+        <v>0</v>
+      </c>
+      <c r="G84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -1790,7 +2806,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C85" t="b">
         <v>1</v>
@@ -1798,6 +2814,18 @@
       <c r="D85" t="n">
         <v>0.3539210502481596</v>
       </c>
+      <c r="E85" t="b">
+        <v>0</v>
+      </c>
+      <c r="F85" t="b">
+        <v>0</v>
+      </c>
+      <c r="G85" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -1806,7 +2834,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C86" t="b">
         <v>1</v>
@@ -1814,6 +2842,18 @@
       <c r="D86" t="n">
         <v>0.4598085729010177</v>
       </c>
+      <c r="E86" t="b">
+        <v>0</v>
+      </c>
+      <c r="F86" t="b">
+        <v>0</v>
+      </c>
+      <c r="G86" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -1822,7 +2862,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C87" t="b">
         <v>1</v>
@@ -1830,6 +2870,18 @@
       <c r="D87" t="n">
         <v>0.2672177023169669</v>
       </c>
+      <c r="E87" t="b">
+        <v>0</v>
+      </c>
+      <c r="F87" t="b">
+        <v>0</v>
+      </c>
+      <c r="G87" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -1838,7 +2890,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C88" t="b">
         <v>0</v>
@@ -1846,6 +2898,18 @@
       <c r="D88" t="n">
         <v>0.05730851298692275</v>
       </c>
+      <c r="E88" t="b">
+        <v>0</v>
+      </c>
+      <c r="F88" t="b">
+        <v>1</v>
+      </c>
+      <c r="G88" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -1854,7 +2918,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C89" t="b">
         <v>0</v>
@@ -1862,6 +2926,18 @@
       <c r="D89" t="n">
         <v>0.007483891677111387</v>
       </c>
+      <c r="E89" t="b">
+        <v>0</v>
+      </c>
+      <c r="F89" t="b">
+        <v>0</v>
+      </c>
+      <c r="G89" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -1870,7 +2946,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C90" t="b">
         <v>1</v>
@@ -1878,6 +2954,18 @@
       <c r="D90" t="n">
         <v>0.34100508193175</v>
       </c>
+      <c r="E90" t="b">
+        <v>0</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+      <c r="G90" t="b">
+        <v>0</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -1886,7 +2974,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C91" t="b">
         <v>0</v>
@@ -1894,6 +2982,18 @@
       <c r="D91" t="n">
         <v>0.06996004929145178</v>
       </c>
+      <c r="E91" t="b">
+        <v>0</v>
+      </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+      <c r="G91" t="b">
+        <v>0</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -1910,6 +3010,18 @@
       <c r="D92" t="n">
         <v>0.09809967015798275</v>
       </c>
+      <c r="E92" t="b">
+        <v>0</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+      <c r="G92" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -1926,6 +3038,18 @@
       <c r="D93" t="n">
         <v>0.1693266495489157</v>
       </c>
+      <c r="E93" t="b">
+        <v>0</v>
+      </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+      <c r="G93" t="b">
+        <v>0</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -1942,6 +3066,18 @@
       <c r="D94" t="n">
         <v>0.1228080079532587</v>
       </c>
+      <c r="E94" t="b">
+        <v>0</v>
+      </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+      <c r="G94" t="b">
+        <v>0</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -1950,7 +3086,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C95" t="b">
         <v>1</v>
@@ -1958,6 +3094,18 @@
       <c r="D95" t="n">
         <v>0.4176223401093122</v>
       </c>
+      <c r="E95" t="b">
+        <v>0</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+      <c r="G95" t="b">
+        <v>0</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -1966,7 +3114,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C96" t="b">
         <v>0</v>
@@ -1974,6 +3122,18 @@
       <c r="D96" t="n">
         <v>0.1459347941997913</v>
       </c>
+      <c r="E96" t="b">
+        <v>0</v>
+      </c>
+      <c r="F96" t="b">
+        <v>1</v>
+      </c>
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -1982,7 +3142,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C97" t="b">
         <v>0</v>
@@ -1990,6 +3150,18 @@
       <c r="D97" t="n">
         <v>0.3634009541924663</v>
       </c>
+      <c r="E97" t="b">
+        <v>0</v>
+      </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+      <c r="G97" t="b">
+        <v>0</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -1998,7 +3170,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C98" t="b">
         <v>0</v>
@@ -2006,6 +3178,18 @@
       <c r="D98" t="n">
         <v>0.1939433590608237</v>
       </c>
+      <c r="E98" t="b">
+        <v>0</v>
+      </c>
+      <c r="F98" t="b">
+        <v>1</v>
+      </c>
+      <c r="G98" t="b">
+        <v>0</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -2014,7 +3198,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C99" t="b">
         <v>1</v>
@@ -2022,6 +3206,18 @@
       <c r="D99" t="n">
         <v>0.443682182007111</v>
       </c>
+      <c r="E99" t="b">
+        <v>0</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+      <c r="G99" t="b">
+        <v>0</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -2030,7 +3226,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C100" t="b">
         <v>1</v>
@@ -2038,6 +3234,18 @@
       <c r="D100" t="n">
         <v>0.4051316016438333</v>
       </c>
+      <c r="E100" t="b">
+        <v>0</v>
+      </c>
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+      <c r="G100" t="b">
+        <v>0</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -2046,7 +3254,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C101" t="b">
         <v>0</v>
@@ -2054,6 +3262,18 @@
       <c r="D101" t="n">
         <v>0.6115363888880786</v>
       </c>
+      <c r="E101" t="b">
+        <v>0</v>
+      </c>
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
+      <c r="G101" t="b">
+        <v>0</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -2062,7 +3282,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C102" t="b">
         <v>0</v>
@@ -2070,6 +3290,18 @@
       <c r="D102" t="n">
         <v>0.1752754894841928</v>
       </c>
+      <c r="E102" t="b">
+        <v>0</v>
+      </c>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+      <c r="G102" t="b">
+        <v>0</v>
+      </c>
+      <c r="H102" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -2078,7 +3310,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C103" t="b">
         <v>1</v>
@@ -2086,6 +3318,18 @@
       <c r="D103" t="n">
         <v>0.379739580845291</v>
       </c>
+      <c r="E103" t="b">
+        <v>0</v>
+      </c>
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+      <c r="G103" t="b">
+        <v>0</v>
+      </c>
+      <c r="H103" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -2094,7 +3338,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C104" t="b">
         <v>1</v>
@@ -2102,6 +3346,18 @@
       <c r="D104" t="n">
         <v>0.3315675679768901</v>
       </c>
+      <c r="E104" t="b">
+        <v>0</v>
+      </c>
+      <c r="F104" t="b">
+        <v>0</v>
+      </c>
+      <c r="G104" t="b">
+        <v>0</v>
+      </c>
+      <c r="H104" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -2110,7 +3366,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C105" t="b">
         <v>1</v>
@@ -2118,6 +3374,18 @@
       <c r="D105" t="n">
         <v>0.3556590823767086</v>
       </c>
+      <c r="E105" t="b">
+        <v>0</v>
+      </c>
+      <c r="F105" t="b">
+        <v>0</v>
+      </c>
+      <c r="G105" t="b">
+        <v>0</v>
+      </c>
+      <c r="H105" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -2126,7 +3394,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C106" t="b">
         <v>0</v>
@@ -2134,6 +3402,18 @@
       <c r="D106" t="n">
         <v>0.2716918741352856</v>
       </c>
+      <c r="E106" t="b">
+        <v>1</v>
+      </c>
+      <c r="F106" t="b">
+        <v>0</v>
+      </c>
+      <c r="G106" t="b">
+        <v>0</v>
+      </c>
+      <c r="H106" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -2142,7 +3422,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C107" t="b">
         <v>1</v>
@@ -2150,6 +3430,18 @@
       <c r="D107" t="n">
         <v>0.6183485064817511</v>
       </c>
+      <c r="E107" t="b">
+        <v>0</v>
+      </c>
+      <c r="F107" t="b">
+        <v>0</v>
+      </c>
+      <c r="G107" t="b">
+        <v>0</v>
+      </c>
+      <c r="H107" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -2158,7 +3450,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C108" t="b">
         <v>0</v>
@@ -2166,6 +3458,18 @@
       <c r="D108" t="n">
         <v>0.05443885438144207</v>
       </c>
+      <c r="E108" t="b">
+        <v>0</v>
+      </c>
+      <c r="F108" t="b">
+        <v>0</v>
+      </c>
+      <c r="G108" t="b">
+        <v>0</v>
+      </c>
+      <c r="H108" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -2174,7 +3478,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C109" t="b">
         <v>0</v>
@@ -2182,6 +3486,18 @@
       <c r="D109" t="n">
         <v>0.5820473072711717</v>
       </c>
+      <c r="E109" t="b">
+        <v>0</v>
+      </c>
+      <c r="F109" t="b">
+        <v>0</v>
+      </c>
+      <c r="G109" t="b">
+        <v>0</v>
+      </c>
+      <c r="H109" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -2190,7 +3506,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C110" t="b">
         <v>0</v>
@@ -2198,6 +3514,18 @@
       <c r="D110" t="n">
         <v>0.105016353466597</v>
       </c>
+      <c r="E110" t="b">
+        <v>0</v>
+      </c>
+      <c r="F110" t="b">
+        <v>0</v>
+      </c>
+      <c r="G110" t="b">
+        <v>0</v>
+      </c>
+      <c r="H110" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -2214,6 +3542,18 @@
       <c r="D111" t="n">
         <v>0.201731588007533</v>
       </c>
+      <c r="E111" t="b">
+        <v>0</v>
+      </c>
+      <c r="F111" t="b">
+        <v>0</v>
+      </c>
+      <c r="G111" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -2222,7 +3562,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C112" t="b">
         <v>0</v>
@@ -2230,6 +3570,18 @@
       <c r="D112" t="n">
         <v>0.2356956881574458</v>
       </c>
+      <c r="E112" t="b">
+        <v>0</v>
+      </c>
+      <c r="F112" t="b">
+        <v>0</v>
+      </c>
+      <c r="G112" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -2238,7 +3590,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C113" t="b">
         <v>0</v>
@@ -2246,6 +3598,18 @@
       <c r="D113" t="n">
         <v>0.347893815435883</v>
       </c>
+      <c r="E113" t="b">
+        <v>0</v>
+      </c>
+      <c r="F113" t="b">
+        <v>0</v>
+      </c>
+      <c r="G113" t="b">
+        <v>1</v>
+      </c>
+      <c r="H113" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -2254,7 +3618,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C114" t="b">
         <v>0</v>
@@ -2262,6 +3626,18 @@
       <c r="D114" t="n">
         <v>0.4790474551562697</v>
       </c>
+      <c r="E114" t="b">
+        <v>0</v>
+      </c>
+      <c r="F114" t="b">
+        <v>0</v>
+      </c>
+      <c r="G114" t="b">
+        <v>0</v>
+      </c>
+      <c r="H114" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -2270,7 +3646,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C115" t="b">
         <v>0</v>
@@ -2278,6 +3654,18 @@
       <c r="D115" t="n">
         <v>0.1198473921155228</v>
       </c>
+      <c r="E115" t="b">
+        <v>0</v>
+      </c>
+      <c r="F115" t="b">
+        <v>1</v>
+      </c>
+      <c r="G115" t="b">
+        <v>0</v>
+      </c>
+      <c r="H115" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -2286,7 +3674,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C116" t="b">
         <v>1</v>
@@ -2294,6 +3682,18 @@
       <c r="D116" t="n">
         <v>0.449381195104275</v>
       </c>
+      <c r="E116" t="b">
+        <v>0</v>
+      </c>
+      <c r="F116" t="b">
+        <v>0</v>
+      </c>
+      <c r="G116" t="b">
+        <v>0</v>
+      </c>
+      <c r="H116" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -2310,6 +3710,18 @@
       <c r="D117" t="n">
         <v>0.5338023970129363</v>
       </c>
+      <c r="E117" t="b">
+        <v>0</v>
+      </c>
+      <c r="F117" t="b">
+        <v>0</v>
+      </c>
+      <c r="G117" t="b">
+        <v>0</v>
+      </c>
+      <c r="H117" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -2326,6 +3738,18 @@
       <c r="D118" t="n">
         <v>0.4982477198143236</v>
       </c>
+      <c r="E118" t="b">
+        <v>0</v>
+      </c>
+      <c r="F118" t="b">
+        <v>0</v>
+      </c>
+      <c r="G118" t="b">
+        <v>0</v>
+      </c>
+      <c r="H118" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -2334,7 +3758,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C119" t="b">
         <v>0</v>
@@ -2342,6 +3766,18 @@
       <c r="D119" t="n">
         <v>0.2508981578024472</v>
       </c>
+      <c r="E119" t="b">
+        <v>1</v>
+      </c>
+      <c r="F119" t="b">
+        <v>0</v>
+      </c>
+      <c r="G119" t="b">
+        <v>0</v>
+      </c>
+      <c r="H119" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -2358,6 +3794,18 @@
       <c r="D120" t="n">
         <v>0.3801605066161274</v>
       </c>
+      <c r="E120" t="b">
+        <v>0</v>
+      </c>
+      <c r="F120" t="b">
+        <v>0</v>
+      </c>
+      <c r="G120" t="b">
+        <v>0</v>
+      </c>
+      <c r="H120" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -2366,7 +3814,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C121" t="b">
         <v>0</v>
@@ -2374,6 +3822,18 @@
       <c r="D121" t="n">
         <v>0.0942738021723926</v>
       </c>
+      <c r="E121" t="b">
+        <v>0</v>
+      </c>
+      <c r="F121" t="b">
+        <v>1</v>
+      </c>
+      <c r="G121" t="b">
+        <v>0</v>
+      </c>
+      <c r="H121" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -2382,7 +3842,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C122" t="b">
         <v>0</v>
@@ -2390,6 +3850,18 @@
       <c r="D122" t="n">
         <v>0.08070772094652057</v>
       </c>
+      <c r="E122" t="b">
+        <v>0</v>
+      </c>
+      <c r="F122" t="b">
+        <v>1</v>
+      </c>
+      <c r="G122" t="b">
+        <v>0</v>
+      </c>
+      <c r="H122" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -2398,7 +3870,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C123" t="b">
         <v>0</v>
@@ -2406,6 +3878,18 @@
       <c r="D123" t="n">
         <v>0.04198105352988932</v>
       </c>
+      <c r="E123" t="b">
+        <v>0</v>
+      </c>
+      <c r="F123" t="b">
+        <v>1</v>
+      </c>
+      <c r="G123" t="b">
+        <v>0</v>
+      </c>
+      <c r="H123" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -2414,7 +3898,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C124" t="b">
         <v>1</v>
@@ -2422,6 +3906,18 @@
       <c r="D124" t="n">
         <v>0.5729513415800673</v>
       </c>
+      <c r="E124" t="b">
+        <v>0</v>
+      </c>
+      <c r="F124" t="b">
+        <v>0</v>
+      </c>
+      <c r="G124" t="b">
+        <v>0</v>
+      </c>
+      <c r="H124" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -2430,7 +3926,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C125" t="b">
         <v>1</v>
@@ -2438,6 +3934,18 @@
       <c r="D125" t="n">
         <v>0.6440770530274936</v>
       </c>
+      <c r="E125" t="b">
+        <v>0</v>
+      </c>
+      <c r="F125" t="b">
+        <v>0</v>
+      </c>
+      <c r="G125" t="b">
+        <v>0</v>
+      </c>
+      <c r="H125" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -2446,7 +3954,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C126" t="b">
         <v>0</v>
@@ -2454,6 +3962,18 @@
       <c r="D126" t="n">
         <v>0.3947550528324567</v>
       </c>
+      <c r="E126" t="b">
+        <v>0</v>
+      </c>
+      <c r="F126" t="b">
+        <v>0</v>
+      </c>
+      <c r="G126" t="b">
+        <v>0</v>
+      </c>
+      <c r="H126" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -2462,7 +3982,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C127" t="b">
         <v>1</v>
@@ -2470,6 +3990,18 @@
       <c r="D127" t="n">
         <v>0.33937704609707</v>
       </c>
+      <c r="E127" t="b">
+        <v>0</v>
+      </c>
+      <c r="F127" t="b">
+        <v>0</v>
+      </c>
+      <c r="G127" t="b">
+        <v>0</v>
+      </c>
+      <c r="H127" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -2478,7 +4010,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C128" t="b">
         <v>1</v>
@@ -2486,6 +4018,18 @@
       <c r="D128" t="n">
         <v>0.1849443471479801</v>
       </c>
+      <c r="E128" t="b">
+        <v>0</v>
+      </c>
+      <c r="F128" t="b">
+        <v>0</v>
+      </c>
+      <c r="G128" t="b">
+        <v>0</v>
+      </c>
+      <c r="H128" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -2494,7 +4038,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C129" t="b">
         <v>0</v>
@@ -2502,6 +4046,18 @@
       <c r="D129" t="n">
         <v>0.2519674196839333</v>
       </c>
+      <c r="E129" t="b">
+        <v>0</v>
+      </c>
+      <c r="F129" t="b">
+        <v>0</v>
+      </c>
+      <c r="G129" t="b">
+        <v>0</v>
+      </c>
+      <c r="H129" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -2510,7 +4066,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C130" t="b">
         <v>0</v>
@@ -2518,6 +4074,18 @@
       <c r="D130" t="n">
         <v>0.1576727096509503</v>
       </c>
+      <c r="E130" t="b">
+        <v>0</v>
+      </c>
+      <c r="F130" t="b">
+        <v>1</v>
+      </c>
+      <c r="G130" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -2526,7 +4094,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C131" t="b">
         <v>0</v>
@@ -2534,6 +4102,18 @@
       <c r="D131" t="n">
         <v>0.3156284992065694</v>
       </c>
+      <c r="E131" t="b">
+        <v>0</v>
+      </c>
+      <c r="F131" t="b">
+        <v>0</v>
+      </c>
+      <c r="G131" t="b">
+        <v>0</v>
+      </c>
+      <c r="H131" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -2542,7 +4122,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C132" t="b">
         <v>0</v>
@@ -2550,6 +4130,18 @@
       <c r="D132" t="n">
         <v>0.5852449735892671</v>
       </c>
+      <c r="E132" t="b">
+        <v>0</v>
+      </c>
+      <c r="F132" t="b">
+        <v>0</v>
+      </c>
+      <c r="G132" t="b">
+        <v>0</v>
+      </c>
+      <c r="H132" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -2558,7 +4150,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C133" t="b">
         <v>0</v>
@@ -2566,6 +4158,18 @@
       <c r="D133" t="n">
         <v>0.5151497158739302</v>
       </c>
+      <c r="E133" t="b">
+        <v>0</v>
+      </c>
+      <c r="F133" t="b">
+        <v>0</v>
+      </c>
+      <c r="G133" t="b">
+        <v>0</v>
+      </c>
+      <c r="H133" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -2582,6 +4186,18 @@
       <c r="D134" t="n">
         <v>0.4881412419631626</v>
       </c>
+      <c r="E134" t="b">
+        <v>0</v>
+      </c>
+      <c r="F134" t="b">
+        <v>0</v>
+      </c>
+      <c r="G134" t="b">
+        <v>0</v>
+      </c>
+      <c r="H134" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -2590,7 +4206,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C135" t="b">
         <v>0</v>
@@ -2598,6 +4214,18 @@
       <c r="D135" t="n">
         <v>0.4438580235917912</v>
       </c>
+      <c r="E135" t="b">
+        <v>0</v>
+      </c>
+      <c r="F135" t="b">
+        <v>0</v>
+      </c>
+      <c r="G135" t="b">
+        <v>0</v>
+      </c>
+      <c r="H135" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -2606,7 +4234,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136" t="b">
         <v>0</v>
@@ -2614,6 +4242,18 @@
       <c r="D136" t="n">
         <v>0.3825811533437621</v>
       </c>
+      <c r="E136" t="b">
+        <v>0</v>
+      </c>
+      <c r="F136" t="b">
+        <v>0</v>
+      </c>
+      <c r="G136" t="b">
+        <v>0</v>
+      </c>
+      <c r="H136" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -2622,7 +4262,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137" t="b">
         <v>0</v>
@@ -2630,6 +4270,18 @@
       <c r="D137" t="n">
         <v>0.3940798514672825</v>
       </c>
+      <c r="E137" t="b">
+        <v>0</v>
+      </c>
+      <c r="F137" t="b">
+        <v>0</v>
+      </c>
+      <c r="G137" t="b">
+        <v>0</v>
+      </c>
+      <c r="H137" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -2638,7 +4290,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" t="b">
         <v>1</v>
@@ -2646,6 +4298,18 @@
       <c r="D138" t="n">
         <v>0.1653627062873316</v>
       </c>
+      <c r="E138" t="b">
+        <v>0</v>
+      </c>
+      <c r="F138" t="b">
+        <v>0</v>
+      </c>
+      <c r="G138" t="b">
+        <v>0</v>
+      </c>
+      <c r="H138" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -2654,7 +4318,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C139" t="b">
         <v>0</v>
@@ -2662,6 +4326,18 @@
       <c r="D139" t="n">
         <v>0.4345205644002327</v>
       </c>
+      <c r="E139" t="b">
+        <v>0</v>
+      </c>
+      <c r="F139" t="b">
+        <v>0</v>
+      </c>
+      <c r="G139" t="b">
+        <v>0</v>
+      </c>
+      <c r="H139" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -2670,7 +4346,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C140" t="b">
         <v>0</v>
@@ -2678,6 +4354,18 @@
       <c r="D140" t="n">
         <v>0.08460631563294944</v>
       </c>
+      <c r="E140" t="b">
+        <v>0</v>
+      </c>
+      <c r="F140" t="b">
+        <v>1</v>
+      </c>
+      <c r="G140" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -2686,7 +4374,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C141" t="b">
         <v>0</v>
@@ -2694,6 +4382,18 @@
       <c r="D141" t="n">
         <v>0.09544252448186681</v>
       </c>
+      <c r="E141" t="b">
+        <v>0</v>
+      </c>
+      <c r="F141" t="b">
+        <v>1</v>
+      </c>
+      <c r="G141" t="b">
+        <v>0</v>
+      </c>
+      <c r="H141" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -2702,7 +4402,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C142" t="b">
         <v>0</v>
@@ -2710,6 +4410,18 @@
       <c r="D142" t="n">
         <v>0.5523638845223821</v>
       </c>
+      <c r="E142" t="b">
+        <v>0</v>
+      </c>
+      <c r="F142" t="b">
+        <v>0</v>
+      </c>
+      <c r="G142" t="b">
+        <v>0</v>
+      </c>
+      <c r="H142" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -2718,7 +4430,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C143" t="b">
         <v>1</v>
@@ -2726,6 +4438,18 @@
       <c r="D143" t="n">
         <v>0.3861195503805692</v>
       </c>
+      <c r="E143" t="b">
+        <v>0</v>
+      </c>
+      <c r="F143" t="b">
+        <v>0</v>
+      </c>
+      <c r="G143" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -2742,6 +4466,18 @@
       <c r="D144" t="n">
         <v>0.2320346565296253</v>
       </c>
+      <c r="E144" t="b">
+        <v>0</v>
+      </c>
+      <c r="F144" t="b">
+        <v>0</v>
+      </c>
+      <c r="G144" t="b">
+        <v>0</v>
+      </c>
+      <c r="H144" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -2750,7 +4486,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C145" t="b">
         <v>0</v>
@@ -2758,6 +4494,18 @@
       <c r="D145" t="n">
         <v>0.634263311969299</v>
       </c>
+      <c r="E145" t="b">
+        <v>0</v>
+      </c>
+      <c r="F145" t="b">
+        <v>0</v>
+      </c>
+      <c r="G145" t="b">
+        <v>0</v>
+      </c>
+      <c r="H145" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -2766,7 +4514,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C146" t="b">
         <v>0</v>
@@ -2774,6 +4522,18 @@
       <c r="D146" t="n">
         <v>0.6000403750906972</v>
       </c>
+      <c r="E146" t="b">
+        <v>0</v>
+      </c>
+      <c r="F146" t="b">
+        <v>0</v>
+      </c>
+      <c r="G146" t="b">
+        <v>0</v>
+      </c>
+      <c r="H146" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -2782,7 +4542,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C147" t="b">
         <v>0</v>
@@ -2790,6 +4550,18 @@
       <c r="D147" t="n">
         <v>0.6260345401424988</v>
       </c>
+      <c r="E147" t="b">
+        <v>0</v>
+      </c>
+      <c r="F147" t="b">
+        <v>0</v>
+      </c>
+      <c r="G147" t="b">
+        <v>0</v>
+      </c>
+      <c r="H147" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -2798,7 +4570,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C148" t="b">
         <v>0</v>
@@ -2806,6 +4578,18 @@
       <c r="D148" t="n">
         <v>0.1400716376055272</v>
       </c>
+      <c r="E148" t="b">
+        <v>0</v>
+      </c>
+      <c r="F148" t="b">
+        <v>1</v>
+      </c>
+      <c r="G148" t="b">
+        <v>0</v>
+      </c>
+      <c r="H148" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -2814,7 +4598,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C149" t="b">
         <v>0</v>
@@ -2822,6 +4606,18 @@
       <c r="D149" t="n">
         <v>0.07133387008357342</v>
       </c>
+      <c r="E149" t="b">
+        <v>0</v>
+      </c>
+      <c r="F149" t="b">
+        <v>1</v>
+      </c>
+      <c r="G149" t="b">
+        <v>0</v>
+      </c>
+      <c r="H149" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -2830,7 +4626,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C150" t="b">
         <v>0</v>
@@ -2838,6 +4634,18 @@
       <c r="D150" t="n">
         <v>0.0858114538475489</v>
       </c>
+      <c r="E150" t="b">
+        <v>0</v>
+      </c>
+      <c r="F150" t="b">
+        <v>0</v>
+      </c>
+      <c r="G150" t="b">
+        <v>0</v>
+      </c>
+      <c r="H150" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -2846,7 +4654,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" t="b">
         <v>1</v>
@@ -2854,6 +4662,18 @@
       <c r="D151" t="n">
         <v>0.3532733707962668</v>
       </c>
+      <c r="E151" t="b">
+        <v>0</v>
+      </c>
+      <c r="F151" t="b">
+        <v>0</v>
+      </c>
+      <c r="G151" t="b">
+        <v>0</v>
+      </c>
+      <c r="H151" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -2870,6 +4690,18 @@
       <c r="D152" t="n">
         <v>0.1422486261435552</v>
       </c>
+      <c r="E152" t="b">
+        <v>0</v>
+      </c>
+      <c r="F152" t="b">
+        <v>1</v>
+      </c>
+      <c r="G152" t="b">
+        <v>0</v>
+      </c>
+      <c r="H152" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -2878,7 +4710,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C153" t="b">
         <v>0</v>
@@ -2886,6 +4718,18 @@
       <c r="D153" t="n">
         <v>0.2711248910770966</v>
       </c>
+      <c r="E153" t="b">
+        <v>0</v>
+      </c>
+      <c r="F153" t="b">
+        <v>0</v>
+      </c>
+      <c r="G153" t="b">
+        <v>0</v>
+      </c>
+      <c r="H153" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -2894,7 +4738,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C154" t="b">
         <v>1</v>
@@ -2902,6 +4746,18 @@
       <c r="D154" t="n">
         <v>0.2671158355863198</v>
       </c>
+      <c r="E154" t="b">
+        <v>0</v>
+      </c>
+      <c r="F154" t="b">
+        <v>0</v>
+      </c>
+      <c r="G154" t="b">
+        <v>0</v>
+      </c>
+      <c r="H154" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -2910,7 +4766,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C155" t="b">
         <v>1</v>
@@ -2918,6 +4774,18 @@
       <c r="D155" t="n">
         <v>0.1639197122474963</v>
       </c>
+      <c r="E155" t="b">
+        <v>0</v>
+      </c>
+      <c r="F155" t="b">
+        <v>0</v>
+      </c>
+      <c r="G155" t="b">
+        <v>0</v>
+      </c>
+      <c r="H155" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -2926,7 +4794,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C156" t="b">
         <v>0</v>
@@ -2934,6 +4802,18 @@
       <c r="D156" t="n">
         <v>0.6177798613006699</v>
       </c>
+      <c r="E156" t="b">
+        <v>0</v>
+      </c>
+      <c r="F156" t="b">
+        <v>0</v>
+      </c>
+      <c r="G156" t="b">
+        <v>0</v>
+      </c>
+      <c r="H156" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -2942,7 +4822,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C157" t="b">
         <v>0</v>
@@ -2950,6 +4830,18 @@
       <c r="D157" t="n">
         <v>0.5655884728159594</v>
       </c>
+      <c r="E157" t="b">
+        <v>0</v>
+      </c>
+      <c r="F157" t="b">
+        <v>0</v>
+      </c>
+      <c r="G157" t="b">
+        <v>0</v>
+      </c>
+      <c r="H157" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -2958,7 +4850,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C158" t="b">
         <v>0</v>
@@ -2966,6 +4858,18 @@
       <c r="D158" t="n">
         <v>0.06118041005916894</v>
       </c>
+      <c r="E158" t="b">
+        <v>0</v>
+      </c>
+      <c r="F158" t="b">
+        <v>0</v>
+      </c>
+      <c r="G158" t="b">
+        <v>0</v>
+      </c>
+      <c r="H158" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -2974,7 +4878,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C159" t="b">
         <v>0</v>
@@ -2982,6 +4886,18 @@
       <c r="D159" t="n">
         <v>0.04950542906299234</v>
       </c>
+      <c r="E159" t="b">
+        <v>0</v>
+      </c>
+      <c r="F159" t="b">
+        <v>0</v>
+      </c>
+      <c r="G159" t="b">
+        <v>0</v>
+      </c>
+      <c r="H159" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -2990,7 +4906,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C160" t="b">
         <v>0</v>
@@ -2998,6 +4914,18 @@
       <c r="D160" t="n">
         <v>0.4075958459687076</v>
       </c>
+      <c r="E160" t="b">
+        <v>0</v>
+      </c>
+      <c r="F160" t="b">
+        <v>0</v>
+      </c>
+      <c r="G160" t="b">
+        <v>0</v>
+      </c>
+      <c r="H160" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -3006,7 +4934,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161" t="b">
         <v>0</v>
@@ -3014,6 +4942,18 @@
       <c r="D161" t="n">
         <v>0.4537532914005089</v>
       </c>
+      <c r="E161" t="b">
+        <v>0</v>
+      </c>
+      <c r="F161" t="b">
+        <v>0</v>
+      </c>
+      <c r="G161" t="b">
+        <v>0</v>
+      </c>
+      <c r="H161" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -3022,7 +4962,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" t="b">
         <v>0</v>
@@ -3030,6 +4970,18 @@
       <c r="D162" t="n">
         <v>0.5910910307511426</v>
       </c>
+      <c r="E162" t="b">
+        <v>0</v>
+      </c>
+      <c r="F162" t="b">
+        <v>0</v>
+      </c>
+      <c r="G162" t="b">
+        <v>0</v>
+      </c>
+      <c r="H162" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -3038,7 +4990,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163" t="b">
         <v>0</v>
@@ -3046,6 +4998,18 @@
       <c r="D163" t="n">
         <v>0.582089346817188</v>
       </c>
+      <c r="E163" t="b">
+        <v>0</v>
+      </c>
+      <c r="F163" t="b">
+        <v>0</v>
+      </c>
+      <c r="G163" t="b">
+        <v>0</v>
+      </c>
+      <c r="H163" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -3054,7 +5018,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C164" t="b">
         <v>0</v>
@@ -3062,6 +5026,18 @@
       <c r="D164" t="n">
         <v>0.2857010824763596</v>
       </c>
+      <c r="E164" t="b">
+        <v>1</v>
+      </c>
+      <c r="F164" t="b">
+        <v>0</v>
+      </c>
+      <c r="G164" t="b">
+        <v>0</v>
+      </c>
+      <c r="H164" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -3070,7 +5046,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C165" t="b">
         <v>0</v>
@@ -3078,6 +5054,18 @@
       <c r="D165" t="n">
         <v>0.2687590473276367</v>
       </c>
+      <c r="E165" t="b">
+        <v>1</v>
+      </c>
+      <c r="F165" t="b">
+        <v>0</v>
+      </c>
+      <c r="G165" t="b">
+        <v>0</v>
+      </c>
+      <c r="H165" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -3086,7 +5074,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C166" t="b">
         <v>0</v>
@@ -3094,6 +5082,18 @@
       <c r="D166" t="n">
         <v>0.3179828565725505</v>
       </c>
+      <c r="E166" t="b">
+        <v>1</v>
+      </c>
+      <c r="F166" t="b">
+        <v>0</v>
+      </c>
+      <c r="G166" t="b">
+        <v>0</v>
+      </c>
+      <c r="H166" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -3102,7 +5102,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C167" t="b">
         <v>1</v>
@@ -3110,6 +5110,18 @@
       <c r="D167" t="n">
         <v>0.5870509371161461</v>
       </c>
+      <c r="E167" t="b">
+        <v>0</v>
+      </c>
+      <c r="F167" t="b">
+        <v>0</v>
+      </c>
+      <c r="G167" t="b">
+        <v>0</v>
+      </c>
+      <c r="H167" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -3118,7 +5130,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C168" t="b">
         <v>1</v>
@@ -3126,6 +5138,18 @@
       <c r="D168" t="n">
         <v>0.6684894929098528</v>
       </c>
+      <c r="E168" t="b">
+        <v>0</v>
+      </c>
+      <c r="F168" t="b">
+        <v>0</v>
+      </c>
+      <c r="G168" t="b">
+        <v>0</v>
+      </c>
+      <c r="H168" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -3134,7 +5158,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C169" t="b">
         <v>1</v>
@@ -3142,6 +5166,18 @@
       <c r="D169" t="n">
         <v>0.3588560680332391</v>
       </c>
+      <c r="E169" t="b">
+        <v>0</v>
+      </c>
+      <c r="F169" t="b">
+        <v>0</v>
+      </c>
+      <c r="G169" t="b">
+        <v>0</v>
+      </c>
+      <c r="H169" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
@@ -3150,7 +5186,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C170" t="b">
         <v>1</v>
@@ -3158,6 +5194,18 @@
       <c r="D170" t="n">
         <v>0.3244067198700375</v>
       </c>
+      <c r="E170" t="b">
+        <v>0</v>
+      </c>
+      <c r="F170" t="b">
+        <v>0</v>
+      </c>
+      <c r="G170" t="b">
+        <v>0</v>
+      </c>
+      <c r="H170" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -3166,7 +5214,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C171" t="b">
         <v>0</v>
@@ -3174,6 +5222,18 @@
       <c r="D171" t="n">
         <v>0.08279738055425696</v>
       </c>
+      <c r="E171" t="b">
+        <v>0</v>
+      </c>
+      <c r="F171" t="b">
+        <v>1</v>
+      </c>
+      <c r="G171" t="b">
+        <v>1</v>
+      </c>
+      <c r="H171" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -3182,7 +5242,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C172" t="b">
         <v>0</v>
@@ -3190,6 +5250,18 @@
       <c r="D172" t="n">
         <v>0.2579544711094186</v>
       </c>
+      <c r="E172" t="b">
+        <v>0</v>
+      </c>
+      <c r="F172" t="b">
+        <v>0</v>
+      </c>
+      <c r="G172" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -3198,7 +5270,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C173" t="b">
         <v>0</v>
@@ -3206,6 +5278,18 @@
       <c r="D173" t="n">
         <v>0.2219551768268279</v>
       </c>
+      <c r="E173" t="b">
+        <v>0</v>
+      </c>
+      <c r="F173" t="b">
+        <v>0</v>
+      </c>
+      <c r="G173" t="b">
+        <v>1</v>
+      </c>
+      <c r="H173" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -3214,7 +5298,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C174" t="b">
         <v>1</v>
@@ -3222,6 +5306,18 @@
       <c r="D174" t="n">
         <v>0.4242320879031036</v>
       </c>
+      <c r="E174" t="b">
+        <v>0</v>
+      </c>
+      <c r="F174" t="b">
+        <v>0</v>
+      </c>
+      <c r="G174" t="b">
+        <v>0</v>
+      </c>
+      <c r="H174" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
@@ -3230,7 +5326,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C175" t="b">
         <v>0</v>
@@ -3238,6 +5334,18 @@
       <c r="D175" t="n">
         <v>0.1175390285524455</v>
       </c>
+      <c r="E175" t="b">
+        <v>0</v>
+      </c>
+      <c r="F175" t="b">
+        <v>0</v>
+      </c>
+      <c r="G175" t="b">
+        <v>0</v>
+      </c>
+      <c r="H175" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -3246,7 +5354,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C176" t="b">
         <v>0</v>
@@ -3254,6 +5362,18 @@
       <c r="D176" t="n">
         <v>0.108136326413263</v>
       </c>
+      <c r="E176" t="b">
+        <v>0</v>
+      </c>
+      <c r="F176" t="b">
+        <v>0</v>
+      </c>
+      <c r="G176" t="b">
+        <v>0</v>
+      </c>
+      <c r="H176" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
@@ -3262,7 +5382,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177" t="b">
         <v>1</v>
@@ -3270,6 +5390,18 @@
       <c r="D177" t="n">
         <v>0.4283913507805032</v>
       </c>
+      <c r="E177" t="b">
+        <v>0</v>
+      </c>
+      <c r="F177" t="b">
+        <v>0</v>
+      </c>
+      <c r="G177" t="b">
+        <v>0</v>
+      </c>
+      <c r="H177" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -3278,7 +5410,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C178" t="b">
         <v>0</v>
@@ -3286,6 +5418,18 @@
       <c r="D178" t="n">
         <v>0.1468186872926625</v>
       </c>
+      <c r="E178" t="b">
+        <v>0</v>
+      </c>
+      <c r="F178" t="b">
+        <v>0</v>
+      </c>
+      <c r="G178" t="b">
+        <v>0</v>
+      </c>
+      <c r="H178" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -3294,7 +5438,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C179" t="b">
         <v>0</v>
@@ -3302,6 +5446,18 @@
       <c r="D179" t="n">
         <v>0.1151665543968027</v>
       </c>
+      <c r="E179" t="b">
+        <v>0</v>
+      </c>
+      <c r="F179" t="b">
+        <v>0</v>
+      </c>
+      <c r="G179" t="b">
+        <v>0</v>
+      </c>
+      <c r="H179" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
@@ -3310,7 +5466,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C180" t="b">
         <v>0</v>
@@ -3318,6 +5474,18 @@
       <c r="D180" t="n">
         <v>0.2158273590092237</v>
       </c>
+      <c r="E180" t="b">
+        <v>1</v>
+      </c>
+      <c r="F180" t="b">
+        <v>0</v>
+      </c>
+      <c r="G180" t="b">
+        <v>0</v>
+      </c>
+      <c r="H180" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -3334,6 +5502,18 @@
       <c r="D181" t="n">
         <v>0.1327278956020137</v>
       </c>
+      <c r="E181" t="b">
+        <v>0</v>
+      </c>
+      <c r="F181" t="b">
+        <v>1</v>
+      </c>
+      <c r="G181" t="b">
+        <v>0</v>
+      </c>
+      <c r="H181" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -3342,7 +5522,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C182" t="b">
         <v>0</v>
@@ -3350,6 +5530,18 @@
       <c r="D182" t="n">
         <v>0.6074089081957936</v>
       </c>
+      <c r="E182" t="b">
+        <v>0</v>
+      </c>
+      <c r="F182" t="b">
+        <v>0</v>
+      </c>
+      <c r="G182" t="b">
+        <v>0</v>
+      </c>
+      <c r="H182" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
@@ -3358,7 +5550,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C183" t="b">
         <v>0</v>
@@ -3366,6 +5558,18 @@
       <c r="D183" t="n">
         <v>0.4366469683591276</v>
       </c>
+      <c r="E183" t="b">
+        <v>0</v>
+      </c>
+      <c r="F183" t="b">
+        <v>0</v>
+      </c>
+      <c r="G183" t="b">
+        <v>0</v>
+      </c>
+      <c r="H183" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
@@ -3374,7 +5578,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C184" t="b">
         <v>0</v>
@@ -3382,6 +5586,18 @@
       <c r="D184" t="n">
         <v>0.1163389538555601</v>
       </c>
+      <c r="E184" t="b">
+        <v>0</v>
+      </c>
+      <c r="F184" t="b">
+        <v>1</v>
+      </c>
+      <c r="G184" t="b">
+        <v>0</v>
+      </c>
+      <c r="H184" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -3398,6 +5614,18 @@
       <c r="D185" t="n">
         <v>0.1377450114326371</v>
       </c>
+      <c r="E185" t="b">
+        <v>0</v>
+      </c>
+      <c r="F185" t="b">
+        <v>1</v>
+      </c>
+      <c r="G185" t="b">
+        <v>0</v>
+      </c>
+      <c r="H185" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -3406,7 +5634,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C186" t="b">
         <v>0</v>
@@ -3414,6 +5642,18 @@
       <c r="D186" t="n">
         <v>0.08949114956081874</v>
       </c>
+      <c r="E186" t="b">
+        <v>0</v>
+      </c>
+      <c r="F186" t="b">
+        <v>1</v>
+      </c>
+      <c r="G186" t="b">
+        <v>0</v>
+      </c>
+      <c r="H186" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
@@ -3422,7 +5662,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C187" t="b">
         <v>0</v>
@@ -3430,6 +5670,18 @@
       <c r="D187" t="n">
         <v>0.1840041293762624</v>
       </c>
+      <c r="E187" t="b">
+        <v>0</v>
+      </c>
+      <c r="F187" t="b">
+        <v>0</v>
+      </c>
+      <c r="G187" t="b">
+        <v>0</v>
+      </c>
+      <c r="H187" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
@@ -3438,7 +5690,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C188" t="b">
         <v>0</v>
@@ -3446,6 +5698,18 @@
       <c r="D188" t="n">
         <v>0.2029640675422602</v>
       </c>
+      <c r="E188" t="b">
+        <v>0</v>
+      </c>
+      <c r="F188" t="b">
+        <v>0</v>
+      </c>
+      <c r="G188" t="b">
+        <v>0</v>
+      </c>
+      <c r="H188" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
@@ -3454,7 +5718,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C189" t="b">
         <v>0</v>
@@ -3462,6 +5726,18 @@
       <c r="D189" t="n">
         <v>0.2509979543974623</v>
       </c>
+      <c r="E189" t="b">
+        <v>0</v>
+      </c>
+      <c r="F189" t="b">
+        <v>0</v>
+      </c>
+      <c r="G189" t="b">
+        <v>0</v>
+      </c>
+      <c r="H189" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
@@ -3470,7 +5746,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C190" t="b">
         <v>0</v>
@@ -3478,6 +5754,18 @@
       <c r="D190" t="n">
         <v>0.4479807237577107</v>
       </c>
+      <c r="E190" t="b">
+        <v>0</v>
+      </c>
+      <c r="F190" t="b">
+        <v>0</v>
+      </c>
+      <c r="G190" t="b">
+        <v>1</v>
+      </c>
+      <c r="H190" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
@@ -3486,7 +5774,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C191" t="b">
         <v>0</v>
@@ -3494,6 +5782,18 @@
       <c r="D191" t="n">
         <v>0.6132214042273435</v>
       </c>
+      <c r="E191" t="b">
+        <v>0</v>
+      </c>
+      <c r="F191" t="b">
+        <v>0</v>
+      </c>
+      <c r="G191" t="b">
+        <v>1</v>
+      </c>
+      <c r="H191" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
@@ -3502,7 +5802,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C192" t="b">
         <v>0</v>
@@ -3510,6 +5810,18 @@
       <c r="D192" t="n">
         <v>0.3995572416221394</v>
       </c>
+      <c r="E192" t="b">
+        <v>0</v>
+      </c>
+      <c r="F192" t="b">
+        <v>0</v>
+      </c>
+      <c r="G192" t="b">
+        <v>0</v>
+      </c>
+      <c r="H192" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
@@ -3518,7 +5830,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C193" t="b">
         <v>0</v>
@@ -3526,6 +5838,18 @@
       <c r="D193" t="n">
         <v>0.4596386872412216</v>
       </c>
+      <c r="E193" t="b">
+        <v>0</v>
+      </c>
+      <c r="F193" t="b">
+        <v>0</v>
+      </c>
+      <c r="G193" t="b">
+        <v>0</v>
+      </c>
+      <c r="H193" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
@@ -3534,7 +5858,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C194" t="b">
         <v>0</v>
@@ -3542,6 +5866,18 @@
       <c r="D194" t="n">
         <v>0.3119085811906391</v>
       </c>
+      <c r="E194" t="b">
+        <v>0</v>
+      </c>
+      <c r="F194" t="b">
+        <v>0</v>
+      </c>
+      <c r="G194" t="b">
+        <v>0</v>
+      </c>
+      <c r="H194" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
@@ -3550,7 +5886,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C195" t="b">
         <v>0</v>
@@ -3558,6 +5894,18 @@
       <c r="D195" t="n">
         <v>0.5790380219618479</v>
       </c>
+      <c r="E195" t="b">
+        <v>0</v>
+      </c>
+      <c r="F195" t="b">
+        <v>0</v>
+      </c>
+      <c r="G195" t="b">
+        <v>1</v>
+      </c>
+      <c r="H195" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
@@ -3566,7 +5914,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C196" t="b">
         <v>0</v>
@@ -3574,6 +5922,18 @@
       <c r="D196" t="n">
         <v>0.4923029797772566</v>
       </c>
+      <c r="E196" t="b">
+        <v>0</v>
+      </c>
+      <c r="F196" t="b">
+        <v>0</v>
+      </c>
+      <c r="G196" t="b">
+        <v>0</v>
+      </c>
+      <c r="H196" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
@@ -3582,7 +5942,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C197" t="b">
         <v>0</v>
@@ -3590,6 +5950,18 @@
       <c r="D197" t="n">
         <v>0.5840407632912199</v>
       </c>
+      <c r="E197" t="b">
+        <v>0</v>
+      </c>
+      <c r="F197" t="b">
+        <v>0</v>
+      </c>
+      <c r="G197" t="b">
+        <v>0</v>
+      </c>
+      <c r="H197" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
@@ -3598,7 +5970,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C198" t="b">
         <v>0</v>
@@ -3606,6 +5978,18 @@
       <c r="D198" t="n">
         <v>0.3801021855324507</v>
       </c>
+      <c r="E198" t="b">
+        <v>0</v>
+      </c>
+      <c r="F198" t="b">
+        <v>0</v>
+      </c>
+      <c r="G198" t="b">
+        <v>0</v>
+      </c>
+      <c r="H198" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -3622,6 +6006,18 @@
       <c r="D199" t="n">
         <v>0.2909475138977818</v>
       </c>
+      <c r="E199" t="b">
+        <v>0</v>
+      </c>
+      <c r="F199" t="b">
+        <v>0</v>
+      </c>
+      <c r="G199" t="b">
+        <v>0</v>
+      </c>
+      <c r="H199" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
@@ -3638,6 +6034,18 @@
       <c r="D200" t="n">
         <v>0.191962586796802</v>
       </c>
+      <c r="E200" t="b">
+        <v>0</v>
+      </c>
+      <c r="F200" t="b">
+        <v>0</v>
+      </c>
+      <c r="G200" t="b">
+        <v>0</v>
+      </c>
+      <c r="H200" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
@@ -3646,7 +6054,7 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C201" t="b">
         <v>0</v>
@@ -3654,6 +6062,18 @@
       <c r="D201" t="n">
         <v>0.04134140209876933</v>
       </c>
+      <c r="E201" t="b">
+        <v>0</v>
+      </c>
+      <c r="F201" t="b">
+        <v>0</v>
+      </c>
+      <c r="G201" t="b">
+        <v>0</v>
+      </c>
+      <c r="H201" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -3662,7 +6082,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C202" t="b">
         <v>0</v>
@@ -3670,6 +6090,18 @@
       <c r="D202" t="n">
         <v>0.06687901058234275</v>
       </c>
+      <c r="E202" t="b">
+        <v>0</v>
+      </c>
+      <c r="F202" t="b">
+        <v>0</v>
+      </c>
+      <c r="G202" t="b">
+        <v>0</v>
+      </c>
+      <c r="H202" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
@@ -3678,7 +6110,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C203" t="b">
         <v>0</v>
@@ -3686,6 +6118,18 @@
       <c r="D203" t="n">
         <v>0.04445956825395115</v>
       </c>
+      <c r="E203" t="b">
+        <v>0</v>
+      </c>
+      <c r="F203" t="b">
+        <v>0</v>
+      </c>
+      <c r="G203" t="b">
+        <v>0</v>
+      </c>
+      <c r="H203" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
@@ -3694,7 +6138,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C204" t="b">
         <v>0</v>
@@ -3702,6 +6146,18 @@
       <c r="D204" t="n">
         <v>0.03656287231424358</v>
       </c>
+      <c r="E204" t="b">
+        <v>0</v>
+      </c>
+      <c r="F204" t="b">
+        <v>0</v>
+      </c>
+      <c r="G204" t="b">
+        <v>0</v>
+      </c>
+      <c r="H204" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
@@ -3710,7 +6166,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C205" t="b">
         <v>0</v>
@@ -3718,6 +6174,18 @@
       <c r="D205" t="n">
         <v>0.04625357207842171</v>
       </c>
+      <c r="E205" t="b">
+        <v>0</v>
+      </c>
+      <c r="F205" t="b">
+        <v>0</v>
+      </c>
+      <c r="G205" t="b">
+        <v>0</v>
+      </c>
+      <c r="H205" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
@@ -3726,7 +6194,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C206" t="b">
         <v>0</v>
@@ -3734,6 +6202,18 @@
       <c r="D206" t="n">
         <v>0.06510084280278533</v>
       </c>
+      <c r="E206" t="b">
+        <v>0</v>
+      </c>
+      <c r="F206" t="b">
+        <v>0</v>
+      </c>
+      <c r="G206" t="b">
+        <v>0</v>
+      </c>
+      <c r="H206" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
@@ -3742,7 +6222,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C207" t="b">
         <v>0</v>
@@ -3750,6 +6230,18 @@
       <c r="D207" t="n">
         <v>0.07367144108695142</v>
       </c>
+      <c r="E207" t="b">
+        <v>0</v>
+      </c>
+      <c r="F207" t="b">
+        <v>0</v>
+      </c>
+      <c r="G207" t="b">
+        <v>0</v>
+      </c>
+      <c r="H207" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
@@ -3758,7 +6250,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C208" t="b">
         <v>0</v>
@@ -3766,6 +6258,18 @@
       <c r="D208" t="n">
         <v>0.5850073610246181</v>
       </c>
+      <c r="E208" t="b">
+        <v>0</v>
+      </c>
+      <c r="F208" t="b">
+        <v>0</v>
+      </c>
+      <c r="G208" t="b">
+        <v>0</v>
+      </c>
+      <c r="H208" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
@@ -3774,7 +6278,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C209" t="b">
         <v>0</v>
@@ -3782,6 +6286,18 @@
       <c r="D209" t="n">
         <v>0.3358072354213187</v>
       </c>
+      <c r="E209" t="b">
+        <v>0</v>
+      </c>
+      <c r="F209" t="b">
+        <v>0</v>
+      </c>
+      <c r="G209" t="b">
+        <v>0</v>
+      </c>
+      <c r="H209" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
@@ -3790,7 +6306,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C210" t="b">
         <v>0</v>
@@ -3798,6 +6314,18 @@
       <c r="D210" t="n">
         <v>0.1324082726302246</v>
       </c>
+      <c r="E210" t="b">
+        <v>0</v>
+      </c>
+      <c r="F210" t="b">
+        <v>1</v>
+      </c>
+      <c r="G210" t="b">
+        <v>0</v>
+      </c>
+      <c r="H210" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
@@ -3806,7 +6334,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C211" t="b">
         <v>0</v>
@@ -3814,6 +6342,18 @@
       <c r="D211" t="n">
         <v>0.1275482725724578</v>
       </c>
+      <c r="E211" t="b">
+        <v>0</v>
+      </c>
+      <c r="F211" t="b">
+        <v>1</v>
+      </c>
+      <c r="G211" t="b">
+        <v>0</v>
+      </c>
+      <c r="H211" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
@@ -3822,7 +6362,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C212" t="b">
         <v>0</v>
@@ -3830,6 +6370,18 @@
       <c r="D212" t="n">
         <v>0.4173805823017444</v>
       </c>
+      <c r="E212" t="b">
+        <v>1</v>
+      </c>
+      <c r="F212" t="b">
+        <v>0</v>
+      </c>
+      <c r="G212" t="b">
+        <v>0</v>
+      </c>
+      <c r="H212" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
@@ -3838,7 +6390,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C213" t="b">
         <v>0</v>
@@ -3846,6 +6398,18 @@
       <c r="D213" t="n">
         <v>0.5445355249258379</v>
       </c>
+      <c r="E213" t="b">
+        <v>0</v>
+      </c>
+      <c r="F213" t="b">
+        <v>0</v>
+      </c>
+      <c r="G213" t="b">
+        <v>0</v>
+      </c>
+      <c r="H213" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
@@ -3854,7 +6418,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C214" t="b">
         <v>0</v>
@@ -3862,6 +6426,18 @@
       <c r="D214" t="n">
         <v>0.1948375072019796</v>
       </c>
+      <c r="E214" t="b">
+        <v>0</v>
+      </c>
+      <c r="F214" t="b">
+        <v>0</v>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
@@ -3870,7 +6446,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C215" t="b">
         <v>0</v>
@@ -3878,6 +6454,18 @@
       <c r="D215" t="n">
         <v>0.2064389479036133</v>
       </c>
+      <c r="E215" t="b">
+        <v>0</v>
+      </c>
+      <c r="F215" t="b">
+        <v>0</v>
+      </c>
+      <c r="G215" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
@@ -3886,7 +6474,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C216" t="b">
         <v>0</v>
@@ -3894,6 +6482,18 @@
       <c r="D216" t="n">
         <v>0.1668109932671422</v>
       </c>
+      <c r="E216" t="b">
+        <v>0</v>
+      </c>
+      <c r="F216" t="b">
+        <v>0</v>
+      </c>
+      <c r="G216" t="b">
+        <v>0</v>
+      </c>
+      <c r="H216" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
@@ -3902,7 +6502,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C217" t="b">
         <v>0</v>
@@ -3910,6 +6510,18 @@
       <c r="D217" t="n">
         <v>0.0006582747446373105</v>
       </c>
+      <c r="E217" t="b">
+        <v>0</v>
+      </c>
+      <c r="F217" t="b">
+        <v>0</v>
+      </c>
+      <c r="G217" t="b">
+        <v>0</v>
+      </c>
+      <c r="H217" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
@@ -3918,7 +6530,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C218" t="b">
         <v>1</v>
@@ -3926,6 +6538,18 @@
       <c r="D218" t="n">
         <v>0.4121945576840325</v>
       </c>
+      <c r="E218" t="b">
+        <v>0</v>
+      </c>
+      <c r="F218" t="b">
+        <v>0</v>
+      </c>
+      <c r="G218" t="b">
+        <v>0</v>
+      </c>
+      <c r="H218" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
@@ -3934,7 +6558,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C219" t="b">
         <v>0</v>
@@ -3942,6 +6566,18 @@
       <c r="D219" t="n">
         <v>0.05096596845425665</v>
       </c>
+      <c r="E219" t="b">
+        <v>0</v>
+      </c>
+      <c r="F219" t="b">
+        <v>0</v>
+      </c>
+      <c r="G219" t="b">
+        <v>0</v>
+      </c>
+      <c r="H219" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
@@ -3950,7 +6586,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C220" t="b">
         <v>1</v>
@@ -3958,6 +6594,18 @@
       <c r="D220" t="n">
         <v>0.2354157397150993</v>
       </c>
+      <c r="E220" t="b">
+        <v>0</v>
+      </c>
+      <c r="F220" t="b">
+        <v>0</v>
+      </c>
+      <c r="G220" t="b">
+        <v>0</v>
+      </c>
+      <c r="H220" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
@@ -3966,7 +6614,7 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C221" t="b">
         <v>1</v>
@@ -3974,6 +6622,18 @@
       <c r="D221" t="n">
         <v>0.3800430948797025</v>
       </c>
+      <c r="E221" t="b">
+        <v>0</v>
+      </c>
+      <c r="F221" t="b">
+        <v>0</v>
+      </c>
+      <c r="G221" t="b">
+        <v>0</v>
+      </c>
+      <c r="H221" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
@@ -3982,7 +6642,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C222" t="b">
         <v>0</v>
@@ -3990,6 +6650,18 @@
       <c r="D222" t="n">
         <v>0.05151052966248244</v>
       </c>
+      <c r="E222" t="b">
+        <v>0</v>
+      </c>
+      <c r="F222" t="b">
+        <v>0</v>
+      </c>
+      <c r="G222" t="b">
+        <v>0</v>
+      </c>
+      <c r="H222" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
@@ -3998,7 +6670,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C223" t="b">
         <v>0</v>
@@ -4006,6 +6678,18 @@
       <c r="D223" t="n">
         <v>0.1080225218486573</v>
       </c>
+      <c r="E223" t="b">
+        <v>0</v>
+      </c>
+      <c r="F223" t="b">
+        <v>0</v>
+      </c>
+      <c r="G223" t="b">
+        <v>0</v>
+      </c>
+      <c r="H223" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
@@ -4022,6 +6706,18 @@
       <c r="D224" t="n">
         <v>0.242848071434042</v>
       </c>
+      <c r="E224" t="b">
+        <v>0</v>
+      </c>
+      <c r="F224" t="b">
+        <v>0</v>
+      </c>
+      <c r="G224" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
@@ -4038,6 +6734,18 @@
       <c r="D225" t="n">
         <v>0.210084075906447</v>
       </c>
+      <c r="E225" t="b">
+        <v>1</v>
+      </c>
+      <c r="F225" t="b">
+        <v>0</v>
+      </c>
+      <c r="G225" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
@@ -4046,7 +6754,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C226" t="b">
         <v>0</v>
@@ -4054,6 +6762,18 @@
       <c r="D226" t="n">
         <v>0.1741642452335717</v>
       </c>
+      <c r="E226" t="b">
+        <v>0</v>
+      </c>
+      <c r="F226" t="b">
+        <v>0</v>
+      </c>
+      <c r="G226" t="b">
+        <v>1</v>
+      </c>
+      <c r="H226" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
@@ -4062,7 +6782,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C227" t="b">
         <v>1</v>
@@ -4070,6 +6790,18 @@
       <c r="D227" t="n">
         <v>0.1301509214937687</v>
       </c>
+      <c r="E227" t="b">
+        <v>0</v>
+      </c>
+      <c r="F227" t="b">
+        <v>0</v>
+      </c>
+      <c r="G227" t="b">
+        <v>0</v>
+      </c>
+      <c r="H227" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
@@ -4078,7 +6810,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C228" t="b">
         <v>1</v>
@@ -4086,6 +6818,18 @@
       <c r="D228" t="n">
         <v>0.50635672382833</v>
       </c>
+      <c r="E228" t="b">
+        <v>0</v>
+      </c>
+      <c r="F228" t="b">
+        <v>0</v>
+      </c>
+      <c r="G228" t="b">
+        <v>0</v>
+      </c>
+      <c r="H228" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
@@ -4094,7 +6838,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C229" t="b">
         <v>0</v>
@@ -4102,6 +6846,18 @@
       <c r="D229" t="n">
         <v>0.6296545992935857</v>
       </c>
+      <c r="E229" t="b">
+        <v>0</v>
+      </c>
+      <c r="F229" t="b">
+        <v>0</v>
+      </c>
+      <c r="G229" t="b">
+        <v>0</v>
+      </c>
+      <c r="H229" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
@@ -4110,7 +6866,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C230" t="b">
         <v>0</v>
@@ -4118,6 +6874,18 @@
       <c r="D230" t="n">
         <v>0.4240000407610621</v>
       </c>
+      <c r="E230" t="b">
+        <v>0</v>
+      </c>
+      <c r="F230" t="b">
+        <v>0</v>
+      </c>
+      <c r="G230" t="b">
+        <v>0</v>
+      </c>
+      <c r="H230" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
@@ -4126,7 +6894,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C231" t="b">
         <v>1</v>
@@ -4134,6 +6902,18 @@
       <c r="D231" t="n">
         <v>0.3289991217177539</v>
       </c>
+      <c r="E231" t="b">
+        <v>0</v>
+      </c>
+      <c r="F231" t="b">
+        <v>0</v>
+      </c>
+      <c r="G231" t="b">
+        <v>0</v>
+      </c>
+      <c r="H231" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
@@ -4142,7 +6922,7 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C232" t="b">
         <v>0</v>
@@ -4150,6 +6930,18 @@
       <c r="D232" t="n">
         <v>0.1431492921442558</v>
       </c>
+      <c r="E232" t="b">
+        <v>0</v>
+      </c>
+      <c r="F232" t="b">
+        <v>1</v>
+      </c>
+      <c r="G232" t="b">
+        <v>0</v>
+      </c>
+      <c r="H232" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
@@ -4166,6 +6958,18 @@
       <c r="D233" t="n">
         <v>0.07898307769071489</v>
       </c>
+      <c r="E233" t="b">
+        <v>0</v>
+      </c>
+      <c r="F233" t="b">
+        <v>0</v>
+      </c>
+      <c r="G233" t="b">
+        <v>0</v>
+      </c>
+      <c r="H233" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
@@ -4174,7 +6978,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C234" t="b">
         <v>0</v>
@@ -4182,6 +6986,18 @@
       <c r="D234" t="n">
         <v>0.1300954352132976</v>
       </c>
+      <c r="E234" t="b">
+        <v>0</v>
+      </c>
+      <c r="F234" t="b">
+        <v>0</v>
+      </c>
+      <c r="G234" t="b">
+        <v>0</v>
+      </c>
+      <c r="H234" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
@@ -4190,7 +7006,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C235" t="b">
         <v>0</v>
@@ -4198,6 +7014,18 @@
       <c r="D235" t="n">
         <v>0.0779363757930696</v>
       </c>
+      <c r="E235" t="b">
+        <v>0</v>
+      </c>
+      <c r="F235" t="b">
+        <v>0</v>
+      </c>
+      <c r="G235" t="b">
+        <v>0</v>
+      </c>
+      <c r="H235" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
@@ -4206,7 +7034,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C236" t="b">
         <v>0</v>
@@ -4214,6 +7042,18 @@
       <c r="D236" t="n">
         <v>0.1397519421068505</v>
       </c>
+      <c r="E236" t="b">
+        <v>0</v>
+      </c>
+      <c r="F236" t="b">
+        <v>1</v>
+      </c>
+      <c r="G236" t="b">
+        <v>0</v>
+      </c>
+      <c r="H236" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
@@ -4230,6 +7070,18 @@
       <c r="D237" t="n">
         <v>0.1045270464604809</v>
       </c>
+      <c r="E237" t="b">
+        <v>0</v>
+      </c>
+      <c r="F237" t="b">
+        <v>0</v>
+      </c>
+      <c r="G237" t="b">
+        <v>0</v>
+      </c>
+      <c r="H237" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
@@ -4238,7 +7090,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C238" t="b">
         <v>0</v>
@@ -4246,6 +7098,18 @@
       <c r="D238" t="n">
         <v>0.4136036312473672</v>
       </c>
+      <c r="E238" t="b">
+        <v>0</v>
+      </c>
+      <c r="F238" t="b">
+        <v>0</v>
+      </c>
+      <c r="G238" t="b">
+        <v>0</v>
+      </c>
+      <c r="H238" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
@@ -4262,6 +7126,18 @@
       <c r="D239" t="n">
         <v>0.1441614915943378</v>
       </c>
+      <c r="E239" t="b">
+        <v>0</v>
+      </c>
+      <c r="F239" t="b">
+        <v>1</v>
+      </c>
+      <c r="G239" t="b">
+        <v>0</v>
+      </c>
+      <c r="H239" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
@@ -4278,6 +7154,18 @@
       <c r="D240" t="n">
         <v>0.1519467734018123</v>
       </c>
+      <c r="E240" t="b">
+        <v>0</v>
+      </c>
+      <c r="F240" t="b">
+        <v>0</v>
+      </c>
+      <c r="G240" t="b">
+        <v>0</v>
+      </c>
+      <c r="H240" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
@@ -4286,7 +7174,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C241" t="b">
         <v>1</v>
@@ -4294,6 +7182,18 @@
       <c r="D241" t="n">
         <v>0.0413315554282495</v>
       </c>
+      <c r="E241" t="b">
+        <v>0</v>
+      </c>
+      <c r="F241" t="b">
+        <v>0</v>
+      </c>
+      <c r="G241" t="b">
+        <v>0</v>
+      </c>
+      <c r="H241" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
@@ -4302,7 +7202,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C242" t="b">
         <v>0</v>
@@ -4310,6 +7210,18 @@
       <c r="D242" t="n">
         <v>0.04375356595431056</v>
       </c>
+      <c r="E242" t="b">
+        <v>0</v>
+      </c>
+      <c r="F242" t="b">
+        <v>0</v>
+      </c>
+      <c r="G242" t="b">
+        <v>0</v>
+      </c>
+      <c r="H242" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
@@ -4318,7 +7230,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C243" t="b">
         <v>0</v>
@@ -4326,6 +7238,18 @@
       <c r="D243" t="n">
         <v>0.2442400187931278</v>
       </c>
+      <c r="E243" t="b">
+        <v>0</v>
+      </c>
+      <c r="F243" t="b">
+        <v>0</v>
+      </c>
+      <c r="G243" t="b">
+        <v>0</v>
+      </c>
+      <c r="H243" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
@@ -4334,7 +7258,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C244" t="b">
         <v>0</v>
@@ -4342,6 +7266,18 @@
       <c r="D244" t="n">
         <v>0.02843487697343032</v>
       </c>
+      <c r="E244" t="b">
+        <v>0</v>
+      </c>
+      <c r="F244" t="b">
+        <v>0</v>
+      </c>
+      <c r="G244" t="b">
+        <v>0</v>
+      </c>
+      <c r="H244" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
@@ -4358,6 +7294,18 @@
       <c r="D245" t="n">
         <v>0.1719356893755302</v>
       </c>
+      <c r="E245" t="b">
+        <v>0</v>
+      </c>
+      <c r="F245" t="b">
+        <v>1</v>
+      </c>
+      <c r="G245" t="b">
+        <v>0</v>
+      </c>
+      <c r="H245" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
@@ -4366,7 +7314,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C246" t="b">
         <v>0</v>
@@ -4374,6 +7322,18 @@
       <c r="D246" t="n">
         <v>0.168011840085276</v>
       </c>
+      <c r="E246" t="b">
+        <v>0</v>
+      </c>
+      <c r="F246" t="b">
+        <v>0</v>
+      </c>
+      <c r="G246" t="b">
+        <v>0</v>
+      </c>
+      <c r="H246" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
@@ -4382,7 +7342,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C247" t="b">
         <v>0</v>
@@ -4390,6 +7350,18 @@
       <c r="D247" t="n">
         <v>0.4320730268955231</v>
       </c>
+      <c r="E247" t="b">
+        <v>0</v>
+      </c>
+      <c r="F247" t="b">
+        <v>0</v>
+      </c>
+      <c r="G247" t="b">
+        <v>0</v>
+      </c>
+      <c r="H247" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
@@ -4398,7 +7370,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C248" t="b">
         <v>0</v>
@@ -4406,6 +7378,18 @@
       <c r="D248" t="n">
         <v>0.1223770331125706</v>
       </c>
+      <c r="E248" t="b">
+        <v>0</v>
+      </c>
+      <c r="F248" t="b">
+        <v>0</v>
+      </c>
+      <c r="G248" t="b">
+        <v>0</v>
+      </c>
+      <c r="H248" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
@@ -4414,7 +7398,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C249" t="b">
         <v>0</v>
@@ -4422,6 +7406,18 @@
       <c r="D249" t="n">
         <v>0.02481884993612766</v>
       </c>
+      <c r="E249" t="b">
+        <v>0</v>
+      </c>
+      <c r="F249" t="b">
+        <v>0</v>
+      </c>
+      <c r="G249" t="b">
+        <v>0</v>
+      </c>
+      <c r="H249" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
@@ -4430,7 +7426,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C250" t="b">
         <v>0</v>
@@ -4438,6 +7434,18 @@
       <c r="D250" t="n">
         <v>0.3462451442963246</v>
       </c>
+      <c r="E250" t="b">
+        <v>0</v>
+      </c>
+      <c r="F250" t="b">
+        <v>0</v>
+      </c>
+      <c r="G250" t="b">
+        <v>0</v>
+      </c>
+      <c r="H250" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
@@ -4446,7 +7454,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C251" t="b">
         <v>0</v>
@@ -4454,6 +7462,18 @@
       <c r="D251" t="n">
         <v>0.1129008950665593</v>
       </c>
+      <c r="E251" t="b">
+        <v>0</v>
+      </c>
+      <c r="F251" t="b">
+        <v>0</v>
+      </c>
+      <c r="G251" t="b">
+        <v>0</v>
+      </c>
+      <c r="H251" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
@@ -4462,7 +7482,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C252" t="b">
         <v>0</v>
@@ -4470,6 +7490,18 @@
       <c r="D252" t="n">
         <v>0.2486391384755411</v>
       </c>
+      <c r="E252" t="b">
+        <v>0</v>
+      </c>
+      <c r="F252" t="b">
+        <v>0</v>
+      </c>
+      <c r="G252" t="b">
+        <v>0</v>
+      </c>
+      <c r="H252" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
@@ -4478,7 +7510,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C253" t="b">
         <v>0</v>
@@ -4486,6 +7518,18 @@
       <c r="D253" t="n">
         <v>0.174026497429417</v>
       </c>
+      <c r="E253" t="b">
+        <v>0</v>
+      </c>
+      <c r="F253" t="b">
+        <v>0</v>
+      </c>
+      <c r="G253" t="b">
+        <v>0</v>
+      </c>
+      <c r="H253" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
@@ -4502,6 +7546,18 @@
       <c r="D254" t="n">
         <v>0.09155128133438882</v>
       </c>
+      <c r="E254" t="b">
+        <v>0</v>
+      </c>
+      <c r="F254" t="b">
+        <v>0</v>
+      </c>
+      <c r="G254" t="b">
+        <v>0</v>
+      </c>
+      <c r="H254" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
@@ -4518,6 +7574,18 @@
       <c r="D255" t="n">
         <v>0.09189419173413799</v>
       </c>
+      <c r="E255" t="b">
+        <v>0</v>
+      </c>
+      <c r="F255" t="b">
+        <v>0</v>
+      </c>
+      <c r="G255" t="b">
+        <v>0</v>
+      </c>
+      <c r="H255" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
@@ -4534,6 +7602,18 @@
       <c r="D256" t="n">
         <v>0.07755532275353159</v>
       </c>
+      <c r="E256" t="b">
+        <v>0</v>
+      </c>
+      <c r="F256" t="b">
+        <v>0</v>
+      </c>
+      <c r="G256" t="b">
+        <v>0</v>
+      </c>
+      <c r="H256" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
@@ -4550,6 +7630,18 @@
       <c r="D257" t="n">
         <v>0.1645324189215898</v>
       </c>
+      <c r="E257" t="b">
+        <v>0</v>
+      </c>
+      <c r="F257" t="b">
+        <v>0</v>
+      </c>
+      <c r="G257" t="b">
+        <v>0</v>
+      </c>
+      <c r="H257" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
@@ -4566,6 +7658,18 @@
       <c r="D258" t="n">
         <v>0.1112309577209609</v>
       </c>
+      <c r="E258" t="b">
+        <v>0</v>
+      </c>
+      <c r="F258" t="b">
+        <v>0</v>
+      </c>
+      <c r="G258" t="b">
+        <v>0</v>
+      </c>
+      <c r="H258" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
@@ -4574,7 +7678,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C259" t="b">
         <v>0</v>
@@ -4582,6 +7686,18 @@
       <c r="D259" t="n">
         <v>0.04865364264696836</v>
       </c>
+      <c r="E259" t="b">
+        <v>0</v>
+      </c>
+      <c r="F259" t="b">
+        <v>0</v>
+      </c>
+      <c r="G259" t="b">
+        <v>0</v>
+      </c>
+      <c r="H259" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
@@ -4590,7 +7706,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C260" t="b">
         <v>0</v>
@@ -4598,6 +7714,18 @@
       <c r="D260" t="n">
         <v>0.2604216071111815</v>
       </c>
+      <c r="E260" t="b">
+        <v>0</v>
+      </c>
+      <c r="F260" t="b">
+        <v>1</v>
+      </c>
+      <c r="G260" t="b">
+        <v>0</v>
+      </c>
+      <c r="H260" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
@@ -4606,7 +7734,7 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C261" t="b">
         <v>0</v>
@@ -4614,6 +7742,18 @@
       <c r="D261" t="n">
         <v>0.343124744072113</v>
       </c>
+      <c r="E261" t="b">
+        <v>1</v>
+      </c>
+      <c r="F261" t="b">
+        <v>0</v>
+      </c>
+      <c r="G261" t="b">
+        <v>0</v>
+      </c>
+      <c r="H261" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
@@ -4622,7 +7762,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C262" t="b">
         <v>0</v>
@@ -4630,6 +7770,18 @@
       <c r="D262" t="n">
         <v>0.3284238306140261</v>
       </c>
+      <c r="E262" t="b">
+        <v>1</v>
+      </c>
+      <c r="F262" t="b">
+        <v>0</v>
+      </c>
+      <c r="G262" t="b">
+        <v>0</v>
+      </c>
+      <c r="H262" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
@@ -4646,6 +7798,18 @@
       <c r="D263" t="n">
         <v>0.1295622269143209</v>
       </c>
+      <c r="E263" t="b">
+        <v>0</v>
+      </c>
+      <c r="F263" t="b">
+        <v>0</v>
+      </c>
+      <c r="G263" t="b">
+        <v>0</v>
+      </c>
+      <c r="H263" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
@@ -4654,7 +7818,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C264" t="b">
         <v>1</v>
@@ -4662,6 +7826,18 @@
       <c r="D264" t="n">
         <v>0.1232595796553561</v>
       </c>
+      <c r="E264" t="b">
+        <v>0</v>
+      </c>
+      <c r="F264" t="b">
+        <v>0</v>
+      </c>
+      <c r="G264" t="b">
+        <v>0</v>
+      </c>
+      <c r="H264" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
@@ -4670,7 +7846,7 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C265" t="b">
         <v>0</v>
@@ -4678,6 +7854,18 @@
       <c r="D265" t="n">
         <v>0.1197847010833877</v>
       </c>
+      <c r="E265" t="b">
+        <v>0</v>
+      </c>
+      <c r="F265" t="b">
+        <v>0</v>
+      </c>
+      <c r="G265" t="b">
+        <v>0</v>
+      </c>
+      <c r="H265" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
@@ -4694,6 +7882,18 @@
       <c r="D266" t="n">
         <v>0.1339472867729892</v>
       </c>
+      <c r="E266" t="b">
+        <v>0</v>
+      </c>
+      <c r="F266" t="b">
+        <v>0</v>
+      </c>
+      <c r="G266" t="b">
+        <v>0</v>
+      </c>
+      <c r="H266" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
@@ -4710,6 +7910,18 @@
       <c r="D267" t="n">
         <v>0.2666581670808442</v>
       </c>
+      <c r="E267" t="b">
+        <v>0</v>
+      </c>
+      <c r="F267" t="b">
+        <v>0</v>
+      </c>
+      <c r="G267" t="b">
+        <v>0</v>
+      </c>
+      <c r="H267" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
@@ -4718,7 +7930,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C268" t="b">
         <v>0</v>
@@ -4726,6 +7938,18 @@
       <c r="D268" t="n">
         <v>0.1763195871160581</v>
       </c>
+      <c r="E268" t="b">
+        <v>0</v>
+      </c>
+      <c r="F268" t="b">
+        <v>0</v>
+      </c>
+      <c r="G268" t="b">
+        <v>0</v>
+      </c>
+      <c r="H268" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
@@ -4734,7 +7958,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C269" t="b">
         <v>0</v>
@@ -4742,6 +7966,18 @@
       <c r="D269" t="n">
         <v>0.1873528978859003</v>
       </c>
+      <c r="E269" t="b">
+        <v>0</v>
+      </c>
+      <c r="F269" t="b">
+        <v>0</v>
+      </c>
+      <c r="G269" t="b">
+        <v>0</v>
+      </c>
+      <c r="H269" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
@@ -4750,7 +7986,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C270" t="b">
         <v>0</v>
@@ -4758,6 +7994,18 @@
       <c r="D270" t="n">
         <v>0.130123950444078</v>
       </c>
+      <c r="E270" t="b">
+        <v>0</v>
+      </c>
+      <c r="F270" t="b">
+        <v>0</v>
+      </c>
+      <c r="G270" t="b">
+        <v>0</v>
+      </c>
+      <c r="H270" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
@@ -4766,7 +8014,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C271" t="b">
         <v>0</v>
@@ -4774,6 +8022,18 @@
       <c r="D271" t="n">
         <v>0.1482110139551676</v>
       </c>
+      <c r="E271" t="b">
+        <v>0</v>
+      </c>
+      <c r="F271" t="b">
+        <v>1</v>
+      </c>
+      <c r="G271" t="b">
+        <v>1</v>
+      </c>
+      <c r="H271" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
@@ -4782,7 +8042,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C272" t="b">
         <v>0</v>
@@ -4790,6 +8050,18 @@
       <c r="D272" t="n">
         <v>0.3254824346231838</v>
       </c>
+      <c r="E272" t="b">
+        <v>0</v>
+      </c>
+      <c r="F272" t="b">
+        <v>0</v>
+      </c>
+      <c r="G272" t="b">
+        <v>0</v>
+      </c>
+      <c r="H272" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
@@ -4798,7 +8070,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C273" t="b">
         <v>1</v>
@@ -4806,6 +8078,18 @@
       <c r="D273" t="n">
         <v>0.5511664480648257</v>
       </c>
+      <c r="E273" t="b">
+        <v>0</v>
+      </c>
+      <c r="F273" t="b">
+        <v>0</v>
+      </c>
+      <c r="G273" t="b">
+        <v>0</v>
+      </c>
+      <c r="H273" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
@@ -4814,7 +8098,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C274" t="b">
         <v>0</v>
@@ -4822,6 +8106,18 @@
       <c r="D274" t="n">
         <v>0.01066679926589131</v>
       </c>
+      <c r="E274" t="b">
+        <v>0</v>
+      </c>
+      <c r="F274" t="b">
+        <v>0</v>
+      </c>
+      <c r="G274" t="b">
+        <v>0</v>
+      </c>
+      <c r="H274" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
@@ -4830,7 +8126,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C275" t="b">
         <v>0</v>
@@ -4838,6 +8134,18 @@
       <c r="D275" t="n">
         <v>0.005381041206419468</v>
       </c>
+      <c r="E275" t="b">
+        <v>0</v>
+      </c>
+      <c r="F275" t="b">
+        <v>0</v>
+      </c>
+      <c r="G275" t="b">
+        <v>0</v>
+      </c>
+      <c r="H275" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
@@ -4846,7 +8154,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C276" t="b">
         <v>1</v>
@@ -4854,6 +8162,18 @@
       <c r="D276" t="n">
         <v>0.1304913168719065</v>
       </c>
+      <c r="E276" t="b">
+        <v>0</v>
+      </c>
+      <c r="F276" t="b">
+        <v>0</v>
+      </c>
+      <c r="G276" t="b">
+        <v>0</v>
+      </c>
+      <c r="H276" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
@@ -4862,7 +8182,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C277" t="b">
         <v>1</v>
@@ -4870,6 +8190,18 @@
       <c r="D277" t="n">
         <v>0.09280740524477818</v>
       </c>
+      <c r="E277" t="b">
+        <v>0</v>
+      </c>
+      <c r="F277" t="b">
+        <v>0</v>
+      </c>
+      <c r="G277" t="b">
+        <v>0</v>
+      </c>
+      <c r="H277" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
@@ -4886,6 +8218,18 @@
       <c r="D278" t="n">
         <v>0.1920442191929194</v>
       </c>
+      <c r="E278" t="b">
+        <v>0</v>
+      </c>
+      <c r="F278" t="b">
+        <v>0</v>
+      </c>
+      <c r="G278" t="b">
+        <v>0</v>
+      </c>
+      <c r="H278" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
@@ -4902,6 +8246,18 @@
       <c r="D279" t="n">
         <v>0.1461359392639927</v>
       </c>
+      <c r="E279" t="b">
+        <v>0</v>
+      </c>
+      <c r="F279" t="b">
+        <v>1</v>
+      </c>
+      <c r="G279" t="b">
+        <v>0</v>
+      </c>
+      <c r="H279" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
@@ -4918,6 +8274,18 @@
       <c r="D280" t="n">
         <v>0.1570299462843183</v>
       </c>
+      <c r="E280" t="b">
+        <v>0</v>
+      </c>
+      <c r="F280" t="b">
+        <v>0</v>
+      </c>
+      <c r="G280" t="b">
+        <v>0</v>
+      </c>
+      <c r="H280" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
@@ -4926,7 +8294,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C281" t="b">
         <v>0</v>
@@ -4934,6 +8302,18 @@
       <c r="D281" t="n">
         <v>0.1357186047692916</v>
       </c>
+      <c r="E281" t="b">
+        <v>0</v>
+      </c>
+      <c r="F281" t="b">
+        <v>0</v>
+      </c>
+      <c r="G281" t="b">
+        <v>0</v>
+      </c>
+      <c r="H281" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
@@ -4942,7 +8322,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C282" t="b">
         <v>1</v>
@@ -4950,6 +8330,18 @@
       <c r="D282" t="n">
         <v>0.124065566275801</v>
       </c>
+      <c r="E282" t="b">
+        <v>0</v>
+      </c>
+      <c r="F282" t="b">
+        <v>0</v>
+      </c>
+      <c r="G282" t="b">
+        <v>0</v>
+      </c>
+      <c r="H282" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
@@ -4958,7 +8350,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C283" t="b">
         <v>0</v>
@@ -4966,6 +8358,18 @@
       <c r="D283" t="n">
         <v>0.09194675008408153</v>
       </c>
+      <c r="E283" t="b">
+        <v>0</v>
+      </c>
+      <c r="F283" t="b">
+        <v>1</v>
+      </c>
+      <c r="G283" t="b">
+        <v>1</v>
+      </c>
+      <c r="H283" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
@@ -4974,7 +8378,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C284" t="b">
         <v>1</v>
@@ -4982,6 +8386,18 @@
       <c r="D284" t="n">
         <v>0.1852095981295674</v>
       </c>
+      <c r="E284" t="b">
+        <v>0</v>
+      </c>
+      <c r="F284" t="b">
+        <v>0</v>
+      </c>
+      <c r="G284" t="b">
+        <v>0</v>
+      </c>
+      <c r="H284" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
@@ -4990,7 +8406,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C285" t="b">
         <v>0</v>
@@ -4998,6 +8414,18 @@
       <c r="D285" t="n">
         <v>0.1249448182551484</v>
       </c>
+      <c r="E285" t="b">
+        <v>0</v>
+      </c>
+      <c r="F285" t="b">
+        <v>0</v>
+      </c>
+      <c r="G285" t="b">
+        <v>0</v>
+      </c>
+      <c r="H285" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
@@ -5014,6 +8442,18 @@
       <c r="D286" t="n">
         <v>0.1052044032201652</v>
       </c>
+      <c r="E286" t="b">
+        <v>0</v>
+      </c>
+      <c r="F286" t="b">
+        <v>0</v>
+      </c>
+      <c r="G286" t="b">
+        <v>0</v>
+      </c>
+      <c r="H286" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
@@ -5022,7 +8462,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C287" t="b">
         <v>0</v>
@@ -5030,6 +8470,18 @@
       <c r="D287" t="n">
         <v>0.0170438215136528</v>
       </c>
+      <c r="E287" t="b">
+        <v>0</v>
+      </c>
+      <c r="F287" t="b">
+        <v>0</v>
+      </c>
+      <c r="G287" t="b">
+        <v>0</v>
+      </c>
+      <c r="H287" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
@@ -5038,7 +8490,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C288" t="b">
         <v>0</v>
@@ -5046,6 +8498,18 @@
       <c r="D288" t="n">
         <v>0.09262520354241133</v>
       </c>
+      <c r="E288" t="b">
+        <v>0</v>
+      </c>
+      <c r="F288" t="b">
+        <v>0</v>
+      </c>
+      <c r="G288" t="b">
+        <v>0</v>
+      </c>
+      <c r="H288" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
@@ -5054,7 +8518,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C289" t="b">
         <v>0</v>
@@ -5062,6 +8526,18 @@
       <c r="D289" t="n">
         <v>0.1096834136794011</v>
       </c>
+      <c r="E289" t="b">
+        <v>0</v>
+      </c>
+      <c r="F289" t="b">
+        <v>0</v>
+      </c>
+      <c r="G289" t="b">
+        <v>0</v>
+      </c>
+      <c r="H289" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
@@ -5070,7 +8546,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C290" t="b">
         <v>0</v>
@@ -5078,6 +8554,18 @@
       <c r="D290" t="n">
         <v>0.1884075701236725</v>
       </c>
+      <c r="E290" t="b">
+        <v>0</v>
+      </c>
+      <c r="F290" t="b">
+        <v>0</v>
+      </c>
+      <c r="G290" t="b">
+        <v>0</v>
+      </c>
+      <c r="H290" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
@@ -5094,6 +8582,18 @@
       <c r="D291" t="n">
         <v>0.1850920313825974</v>
       </c>
+      <c r="E291" t="b">
+        <v>0</v>
+      </c>
+      <c r="F291" t="b">
+        <v>0</v>
+      </c>
+      <c r="G291" t="b">
+        <v>0</v>
+      </c>
+      <c r="H291" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
@@ -5102,7 +8602,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C292" t="b">
         <v>1</v>
@@ -5110,6 +8610,18 @@
       <c r="D292" t="n">
         <v>0.5745160350842136</v>
       </c>
+      <c r="E292" t="b">
+        <v>0</v>
+      </c>
+      <c r="F292" t="b">
+        <v>0</v>
+      </c>
+      <c r="G292" t="b">
+        <v>0</v>
+      </c>
+      <c r="H292" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
@@ -5126,6 +8638,18 @@
       <c r="D293" t="n">
         <v>0.09488223539665341</v>
       </c>
+      <c r="E293" t="b">
+        <v>0</v>
+      </c>
+      <c r="F293" t="b">
+        <v>0</v>
+      </c>
+      <c r="G293" t="b">
+        <v>0</v>
+      </c>
+      <c r="H293" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
@@ -5134,7 +8658,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C294" t="b">
         <v>1</v>
@@ -5142,6 +8666,18 @@
       <c r="D294" t="n">
         <v>0.4400796522112453</v>
       </c>
+      <c r="E294" t="b">
+        <v>0</v>
+      </c>
+      <c r="F294" t="b">
+        <v>0</v>
+      </c>
+      <c r="G294" t="b">
+        <v>0</v>
+      </c>
+      <c r="H294" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
@@ -5150,7 +8686,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C295" t="b">
         <v>0</v>
@@ -5158,6 +8694,18 @@
       <c r="D295" t="n">
         <v>0.2541240715654567</v>
       </c>
+      <c r="E295" t="b">
+        <v>1</v>
+      </c>
+      <c r="F295" t="b">
+        <v>0</v>
+      </c>
+      <c r="G295" t="b">
+        <v>0</v>
+      </c>
+      <c r="H295" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
@@ -5166,7 +8714,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C296" t="b">
         <v>0</v>
@@ -5174,6 +8722,18 @@
       <c r="D296" t="n">
         <v>0.2679636492502204</v>
       </c>
+      <c r="E296" t="b">
+        <v>0</v>
+      </c>
+      <c r="F296" t="b">
+        <v>0</v>
+      </c>
+      <c r="G296" t="b">
+        <v>0</v>
+      </c>
+      <c r="H296" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
@@ -5182,7 +8742,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C297" t="b">
         <v>1</v>
@@ -5190,6 +8750,18 @@
       <c r="D297" t="n">
         <v>0.5922176031505361</v>
       </c>
+      <c r="E297" t="b">
+        <v>0</v>
+      </c>
+      <c r="F297" t="b">
+        <v>0</v>
+      </c>
+      <c r="G297" t="b">
+        <v>0</v>
+      </c>
+      <c r="H297" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
@@ -5198,7 +8770,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C298" t="b">
         <v>1</v>
@@ -5206,6 +8778,18 @@
       <c r="D298" t="n">
         <v>0.147592755101089</v>
       </c>
+      <c r="E298" t="b">
+        <v>0</v>
+      </c>
+      <c r="F298" t="b">
+        <v>0</v>
+      </c>
+      <c r="G298" t="b">
+        <v>1</v>
+      </c>
+      <c r="H298" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
@@ -5214,7 +8798,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C299" t="b">
         <v>1</v>
@@ -5222,6 +8806,18 @@
       <c r="D299" t="n">
         <v>0.06402393033433902</v>
       </c>
+      <c r="E299" t="b">
+        <v>0</v>
+      </c>
+      <c r="F299" t="b">
+        <v>0</v>
+      </c>
+      <c r="G299" t="b">
+        <v>0</v>
+      </c>
+      <c r="H299" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
@@ -5230,7 +8826,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C300" t="b">
         <v>1</v>
@@ -5238,6 +8834,18 @@
       <c r="D300" t="n">
         <v>0.1703985163808933</v>
       </c>
+      <c r="E300" t="b">
+        <v>0</v>
+      </c>
+      <c r="F300" t="b">
+        <v>0</v>
+      </c>
+      <c r="G300" t="b">
+        <v>0</v>
+      </c>
+      <c r="H300" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
@@ -5246,7 +8854,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C301" t="b">
         <v>0</v>
@@ -5254,6 +8862,18 @@
       <c r="D301" t="n">
         <v>0.08447525824379662</v>
       </c>
+      <c r="E301" t="b">
+        <v>0</v>
+      </c>
+      <c r="F301" t="b">
+        <v>1</v>
+      </c>
+      <c r="G301" t="b">
+        <v>0</v>
+      </c>
+      <c r="H301" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
@@ -5262,7 +8882,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C302" t="b">
         <v>0</v>
@@ -5270,6 +8890,18 @@
       <c r="D302" t="n">
         <v>0.07104157490303388</v>
       </c>
+      <c r="E302" t="b">
+        <v>0</v>
+      </c>
+      <c r="F302" t="b">
+        <v>0</v>
+      </c>
+      <c r="G302" t="b">
+        <v>0</v>
+      </c>
+      <c r="H302" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
@@ -5278,7 +8910,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C303" t="b">
         <v>0</v>
@@ -5286,6 +8918,18 @@
       <c r="D303" t="n">
         <v>0.136704033442043</v>
       </c>
+      <c r="E303" t="b">
+        <v>0</v>
+      </c>
+      <c r="F303" t="b">
+        <v>1</v>
+      </c>
+      <c r="G303" t="b">
+        <v>0</v>
+      </c>
+      <c r="H303" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
@@ -5294,7 +8938,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C304" t="b">
         <v>1</v>
@@ -5302,6 +8946,18 @@
       <c r="D304" t="n">
         <v>0.3056077058129805</v>
       </c>
+      <c r="E304" t="b">
+        <v>0</v>
+      </c>
+      <c r="F304" t="b">
+        <v>0</v>
+      </c>
+      <c r="G304" t="b">
+        <v>0</v>
+      </c>
+      <c r="H304" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
@@ -5310,7 +8966,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C305" t="b">
         <v>1</v>
@@ -5318,6 +8974,18 @@
       <c r="D305" t="n">
         <v>0.2684294224934692</v>
       </c>
+      <c r="E305" t="b">
+        <v>0</v>
+      </c>
+      <c r="F305" t="b">
+        <v>0</v>
+      </c>
+      <c r="G305" t="b">
+        <v>0</v>
+      </c>
+      <c r="H305" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
@@ -5326,7 +8994,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C306" t="b">
         <v>1</v>
@@ -5334,6 +9002,18 @@
       <c r="D306" t="n">
         <v>0.1026803027838468</v>
       </c>
+      <c r="E306" t="b">
+        <v>0</v>
+      </c>
+      <c r="F306" t="b">
+        <v>0</v>
+      </c>
+      <c r="G306" t="b">
+        <v>0</v>
+      </c>
+      <c r="H306" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
@@ -5350,6 +9030,18 @@
       <c r="D307" t="n">
         <v>0.1755069571172262</v>
       </c>
+      <c r="E307" t="b">
+        <v>0</v>
+      </c>
+      <c r="F307" t="b">
+        <v>1</v>
+      </c>
+      <c r="G307" t="b">
+        <v>0</v>
+      </c>
+      <c r="H307" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
@@ -5358,7 +9050,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C308" t="b">
         <v>0</v>
@@ -5366,6 +9058,18 @@
       <c r="D308" t="n">
         <v>0.1127531658325877</v>
       </c>
+      <c r="E308" t="b">
+        <v>0</v>
+      </c>
+      <c r="F308" t="b">
+        <v>0</v>
+      </c>
+      <c r="G308" t="b">
+        <v>0</v>
+      </c>
+      <c r="H308" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
@@ -5374,7 +9078,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C309" t="b">
         <v>0</v>
@@ -5382,6 +9086,18 @@
       <c r="D309" t="n">
         <v>0.5170979345803736</v>
       </c>
+      <c r="E309" t="b">
+        <v>0</v>
+      </c>
+      <c r="F309" t="b">
+        <v>0</v>
+      </c>
+      <c r="G309" t="b">
+        <v>0</v>
+      </c>
+      <c r="H309" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
@@ -5390,7 +9106,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C310" t="b">
         <v>0</v>
@@ -5398,6 +9114,18 @@
       <c r="D310" t="n">
         <v>0.1512308645133789</v>
       </c>
+      <c r="E310" t="b">
+        <v>0</v>
+      </c>
+      <c r="F310" t="b">
+        <v>0</v>
+      </c>
+      <c r="G310" t="b">
+        <v>0</v>
+      </c>
+      <c r="H310" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
@@ -5406,7 +9134,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C311" t="b">
         <v>1</v>
@@ -5414,6 +9142,18 @@
       <c r="D311" t="n">
         <v>0.3749763387441635</v>
       </c>
+      <c r="E311" t="b">
+        <v>0</v>
+      </c>
+      <c r="F311" t="b">
+        <v>0</v>
+      </c>
+      <c r="G311" t="b">
+        <v>0</v>
+      </c>
+      <c r="H311" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
@@ -5422,7 +9162,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C312" t="b">
         <v>0</v>
@@ -5430,6 +9170,18 @@
       <c r="D312" t="n">
         <v>0.223177647765945</v>
       </c>
+      <c r="E312" t="b">
+        <v>0</v>
+      </c>
+      <c r="F312" t="b">
+        <v>0</v>
+      </c>
+      <c r="G312" t="b">
+        <v>0</v>
+      </c>
+      <c r="H312" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
@@ -5438,7 +9190,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C313" t="b">
         <v>1</v>
@@ -5446,6 +9198,18 @@
       <c r="D313" t="n">
         <v>0.1195515592328527</v>
       </c>
+      <c r="E313" t="b">
+        <v>0</v>
+      </c>
+      <c r="F313" t="b">
+        <v>0</v>
+      </c>
+      <c r="G313" t="b">
+        <v>0</v>
+      </c>
+      <c r="H313" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
@@ -5454,7 +9218,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C314" t="b">
         <v>1</v>
@@ -5462,6 +9226,18 @@
       <c r="D314" t="n">
         <v>0.1305976422842253</v>
       </c>
+      <c r="E314" t="b">
+        <v>0</v>
+      </c>
+      <c r="F314" t="b">
+        <v>0</v>
+      </c>
+      <c r="G314" t="b">
+        <v>0</v>
+      </c>
+      <c r="H314" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
@@ -5470,7 +9246,7 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C315" t="b">
         <v>0</v>
@@ -5478,6 +9254,18 @@
       <c r="D315" t="n">
         <v>0.1019989585814377</v>
       </c>
+      <c r="E315" t="b">
+        <v>0</v>
+      </c>
+      <c r="F315" t="b">
+        <v>0</v>
+      </c>
+      <c r="G315" t="b">
+        <v>0</v>
+      </c>
+      <c r="H315" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
@@ -5486,7 +9274,7 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C316" t="b">
         <v>0</v>
@@ -5494,6 +9282,18 @@
       <c r="D316" t="n">
         <v>0.1128144774805097</v>
       </c>
+      <c r="E316" t="b">
+        <v>0</v>
+      </c>
+      <c r="F316" t="b">
+        <v>1</v>
+      </c>
+      <c r="G316" t="b">
+        <v>0</v>
+      </c>
+      <c r="H316" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
@@ -5502,7 +9302,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C317" t="b">
         <v>0</v>
@@ -5510,6 +9310,18 @@
       <c r="D317" t="n">
         <v>0.140316624859614</v>
       </c>
+      <c r="E317" t="b">
+        <v>0</v>
+      </c>
+      <c r="F317" t="b">
+        <v>0</v>
+      </c>
+      <c r="G317" t="b">
+        <v>1</v>
+      </c>
+      <c r="H317" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
@@ -5518,7 +9330,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C318" t="b">
         <v>1</v>
@@ -5526,6 +9338,18 @@
       <c r="D318" t="n">
         <v>0.4783609848236665</v>
       </c>
+      <c r="E318" t="b">
+        <v>0</v>
+      </c>
+      <c r="F318" t="b">
+        <v>0</v>
+      </c>
+      <c r="G318" t="b">
+        <v>0</v>
+      </c>
+      <c r="H318" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
@@ -5534,7 +9358,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C319" t="b">
         <v>1</v>
@@ -5542,6 +9366,18 @@
       <c r="D319" t="n">
         <v>0.1054132174370655</v>
       </c>
+      <c r="E319" t="b">
+        <v>0</v>
+      </c>
+      <c r="F319" t="b">
+        <v>1</v>
+      </c>
+      <c r="G319" t="b">
+        <v>1</v>
+      </c>
+      <c r="H319" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
@@ -5550,7 +9386,7 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C320" t="b">
         <v>1</v>
@@ -5558,6 +9394,18 @@
       <c r="D320" t="n">
         <v>0.2383564731360159</v>
       </c>
+      <c r="E320" t="b">
+        <v>0</v>
+      </c>
+      <c r="F320" t="b">
+        <v>0</v>
+      </c>
+      <c r="G320" t="b">
+        <v>0</v>
+      </c>
+      <c r="H320" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
@@ -5566,7 +9414,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C321" t="b">
         <v>1</v>
@@ -5574,6 +9422,18 @@
       <c r="D321" t="n">
         <v>0.5809128474105488</v>
       </c>
+      <c r="E321" t="b">
+        <v>0</v>
+      </c>
+      <c r="F321" t="b">
+        <v>0</v>
+      </c>
+      <c r="G321" t="b">
+        <v>0</v>
+      </c>
+      <c r="H321" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
@@ -5582,7 +9442,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C322" t="b">
         <v>1</v>
@@ -5590,6 +9450,18 @@
       <c r="D322" t="n">
         <v>0.3784795363468152</v>
       </c>
+      <c r="E322" t="b">
+        <v>0</v>
+      </c>
+      <c r="F322" t="b">
+        <v>0</v>
+      </c>
+      <c r="G322" t="b">
+        <v>0</v>
+      </c>
+      <c r="H322" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
@@ -5598,7 +9470,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C323" t="b">
         <v>1</v>
@@ -5606,6 +9478,18 @@
       <c r="D323" t="n">
         <v>0.336454464122653</v>
       </c>
+      <c r="E323" t="b">
+        <v>0</v>
+      </c>
+      <c r="F323" t="b">
+        <v>0</v>
+      </c>
+      <c r="G323" t="b">
+        <v>0</v>
+      </c>
+      <c r="H323" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
@@ -5614,7 +9498,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C324" t="b">
         <v>1</v>
@@ -5622,6 +9506,18 @@
       <c r="D324" t="n">
         <v>0.2683324565602975</v>
       </c>
+      <c r="E324" t="b">
+        <v>0</v>
+      </c>
+      <c r="F324" t="b">
+        <v>0</v>
+      </c>
+      <c r="G324" t="b">
+        <v>0</v>
+      </c>
+      <c r="H324" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
@@ -5630,7 +9526,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C325" t="b">
         <v>0</v>
@@ -5638,6 +9534,18 @@
       <c r="D325" t="n">
         <v>0.09908044024219585</v>
       </c>
+      <c r="E325" t="b">
+        <v>0</v>
+      </c>
+      <c r="F325" t="b">
+        <v>1</v>
+      </c>
+      <c r="G325" t="b">
+        <v>0</v>
+      </c>
+      <c r="H325" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
@@ -5646,7 +9554,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C326" t="b">
         <v>0</v>
@@ -5654,6 +9562,18 @@
       <c r="D326" t="n">
         <v>0.6117515965764012</v>
       </c>
+      <c r="E326" t="b">
+        <v>0</v>
+      </c>
+      <c r="F326" t="b">
+        <v>0</v>
+      </c>
+      <c r="G326" t="b">
+        <v>0</v>
+      </c>
+      <c r="H326" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
@@ -5662,7 +9582,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C327" t="b">
         <v>1</v>
@@ -5670,6 +9590,18 @@
       <c r="D327" t="n">
         <v>0.0915577643917817</v>
       </c>
+      <c r="E327" t="b">
+        <v>0</v>
+      </c>
+      <c r="F327" t="b">
+        <v>0</v>
+      </c>
+      <c r="G327" t="b">
+        <v>0</v>
+      </c>
+      <c r="H327" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
@@ -5678,7 +9610,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C328" t="b">
         <v>0</v>
@@ -5686,6 +9618,18 @@
       <c r="D328" t="n">
         <v>0.03521074342230956</v>
       </c>
+      <c r="E328" t="b">
+        <v>0</v>
+      </c>
+      <c r="F328" t="b">
+        <v>0</v>
+      </c>
+      <c r="G328" t="b">
+        <v>0</v>
+      </c>
+      <c r="H328" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
@@ -5694,7 +9638,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C329" t="b">
         <v>0</v>
@@ -5702,6 +9646,18 @@
       <c r="D329" t="n">
         <v>0.6305997330566933</v>
       </c>
+      <c r="E329" t="b">
+        <v>0</v>
+      </c>
+      <c r="F329" t="b">
+        <v>0</v>
+      </c>
+      <c r="G329" t="b">
+        <v>0</v>
+      </c>
+      <c r="H329" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
@@ -5710,7 +9666,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C330" t="b">
         <v>0</v>
@@ -5718,6 +9674,18 @@
       <c r="D330" t="n">
         <v>0.1424923785361311</v>
       </c>
+      <c r="E330" t="b">
+        <v>0</v>
+      </c>
+      <c r="F330" t="b">
+        <v>0</v>
+      </c>
+      <c r="G330" t="b">
+        <v>0</v>
+      </c>
+      <c r="H330" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
@@ -5726,7 +9694,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C331" t="b">
         <v>0</v>
@@ -5734,6 +9702,18 @@
       <c r="D331" t="n">
         <v>0.1584155567951741</v>
       </c>
+      <c r="E331" t="b">
+        <v>0</v>
+      </c>
+      <c r="F331" t="b">
+        <v>0</v>
+      </c>
+      <c r="G331" t="b">
+        <v>0</v>
+      </c>
+      <c r="H331" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
@@ -5742,7 +9722,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C332" t="b">
         <v>0</v>
@@ -5750,6 +9730,18 @@
       <c r="D332" t="n">
         <v>0.3756549923025347</v>
       </c>
+      <c r="E332" t="b">
+        <v>0</v>
+      </c>
+      <c r="F332" t="b">
+        <v>0</v>
+      </c>
+      <c r="G332" t="b">
+        <v>0</v>
+      </c>
+      <c r="H332" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
@@ -5758,7 +9750,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C333" t="b">
         <v>0</v>
@@ -5766,6 +9758,18 @@
       <c r="D333" t="n">
         <v>0.4306313413195312</v>
       </c>
+      <c r="E333" t="b">
+        <v>0</v>
+      </c>
+      <c r="F333" t="b">
+        <v>0</v>
+      </c>
+      <c r="G333" t="b">
+        <v>0</v>
+      </c>
+      <c r="H333" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
@@ -5774,7 +9778,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C334" t="b">
         <v>0</v>
@@ -5782,6 +9786,18 @@
       <c r="D334" t="n">
         <v>0.3659564457419846</v>
       </c>
+      <c r="E334" t="b">
+        <v>0</v>
+      </c>
+      <c r="F334" t="b">
+        <v>0</v>
+      </c>
+      <c r="G334" t="b">
+        <v>0</v>
+      </c>
+      <c r="H334" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
@@ -5790,7 +9806,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C335" t="b">
         <v>0</v>
@@ -5798,6 +9814,18 @@
       <c r="D335" t="n">
         <v>0.2039256562927255</v>
       </c>
+      <c r="E335" t="b">
+        <v>0</v>
+      </c>
+      <c r="F335" t="b">
+        <v>0</v>
+      </c>
+      <c r="G335" t="b">
+        <v>0</v>
+      </c>
+      <c r="H335" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
@@ -5806,7 +9834,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C336" t="b">
         <v>0</v>
@@ -5814,6 +9842,18 @@
       <c r="D336" t="n">
         <v>0.2603351274436271</v>
       </c>
+      <c r="E336" t="b">
+        <v>0</v>
+      </c>
+      <c r="F336" t="b">
+        <v>0</v>
+      </c>
+      <c r="G336" t="b">
+        <v>0</v>
+      </c>
+      <c r="H336" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
@@ -5822,7 +9862,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C337" t="b">
         <v>0</v>
@@ -5830,6 +9870,18 @@
       <c r="D337" t="n">
         <v>0.2698768973350525</v>
       </c>
+      <c r="E337" t="b">
+        <v>0</v>
+      </c>
+      <c r="F337" t="b">
+        <v>0</v>
+      </c>
+      <c r="G337" t="b">
+        <v>0</v>
+      </c>
+      <c r="H337" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
@@ -5838,7 +9890,7 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C338" t="b">
         <v>0</v>
@@ -5846,6 +9898,18 @@
       <c r="D338" t="n">
         <v>0.4310299345740565</v>
       </c>
+      <c r="E338" t="b">
+        <v>0</v>
+      </c>
+      <c r="F338" t="b">
+        <v>0</v>
+      </c>
+      <c r="G338" t="b">
+        <v>0</v>
+      </c>
+      <c r="H338" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
@@ -5854,7 +9918,7 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C339" t="b">
         <v>0</v>
@@ -5862,6 +9926,18 @@
       <c r="D339" t="n">
         <v>0.3131264721698783</v>
       </c>
+      <c r="E339" t="b">
+        <v>0</v>
+      </c>
+      <c r="F339" t="b">
+        <v>0</v>
+      </c>
+      <c r="G339" t="b">
+        <v>0</v>
+      </c>
+      <c r="H339" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
@@ -5870,7 +9946,7 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C340" t="b">
         <v>0</v>
@@ -5878,6 +9954,18 @@
       <c r="D340" t="n">
         <v>0.2963639143164511</v>
       </c>
+      <c r="E340" t="b">
+        <v>0</v>
+      </c>
+      <c r="F340" t="b">
+        <v>0</v>
+      </c>
+      <c r="G340" t="b">
+        <v>0</v>
+      </c>
+      <c r="H340" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
@@ -5886,7 +9974,7 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C341" t="b">
         <v>0</v>
@@ -5894,6 +9982,18 @@
       <c r="D341" t="n">
         <v>0.3276301883626729</v>
       </c>
+      <c r="E341" t="b">
+        <v>0</v>
+      </c>
+      <c r="F341" t="b">
+        <v>0</v>
+      </c>
+      <c r="G341" t="b">
+        <v>0</v>
+      </c>
+      <c r="H341" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
@@ -5902,7 +10002,7 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C342" t="b">
         <v>1</v>
@@ -5910,6 +10010,18 @@
       <c r="D342" t="n">
         <v>0.6185685432929959</v>
       </c>
+      <c r="E342" t="b">
+        <v>0</v>
+      </c>
+      <c r="F342" t="b">
+        <v>0</v>
+      </c>
+      <c r="G342" t="b">
+        <v>0</v>
+      </c>
+      <c r="H342" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
@@ -5918,7 +10030,7 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C343" t="b">
         <v>0</v>
@@ -5926,6 +10038,18 @@
       <c r="D343" t="n">
         <v>0.3985798306607952</v>
       </c>
+      <c r="E343" t="b">
+        <v>0</v>
+      </c>
+      <c r="F343" t="b">
+        <v>0</v>
+      </c>
+      <c r="G343" t="b">
+        <v>0</v>
+      </c>
+      <c r="H343" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
@@ -5934,7 +10058,7 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C344" t="b">
         <v>0</v>
@@ -5942,6 +10066,18 @@
       <c r="D344" t="n">
         <v>0.07931420095264911</v>
       </c>
+      <c r="E344" t="b">
+        <v>0</v>
+      </c>
+      <c r="F344" t="b">
+        <v>0</v>
+      </c>
+      <c r="G344" t="b">
+        <v>0</v>
+      </c>
+      <c r="H344" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
@@ -5950,7 +10086,7 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C345" t="b">
         <v>0</v>
@@ -5958,6 +10094,18 @@
       <c r="D345" t="n">
         <v>0.1441469999651114</v>
       </c>
+      <c r="E345" t="b">
+        <v>0</v>
+      </c>
+      <c r="F345" t="b">
+        <v>0</v>
+      </c>
+      <c r="G345" t="b">
+        <v>0</v>
+      </c>
+      <c r="H345" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
@@ -5966,7 +10114,7 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C346" t="b">
         <v>0</v>
@@ -5974,6 +10122,18 @@
       <c r="D346" t="n">
         <v>0.09457949129864573</v>
       </c>
+      <c r="E346" t="b">
+        <v>0</v>
+      </c>
+      <c r="F346" t="b">
+        <v>0</v>
+      </c>
+      <c r="G346" t="b">
+        <v>0</v>
+      </c>
+      <c r="H346" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
@@ -5982,7 +10142,7 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C347" t="b">
         <v>0</v>
@@ -5990,6 +10150,18 @@
       <c r="D347" t="n">
         <v>0.0945329913361506</v>
       </c>
+      <c r="E347" t="b">
+        <v>0</v>
+      </c>
+      <c r="F347" t="b">
+        <v>0</v>
+      </c>
+      <c r="G347" t="b">
+        <v>0</v>
+      </c>
+      <c r="H347" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
@@ -5998,7 +10170,7 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C348" t="b">
         <v>0</v>
@@ -6006,6 +10178,18 @@
       <c r="D348" t="n">
         <v>0.07237256856878167</v>
       </c>
+      <c r="E348" t="b">
+        <v>0</v>
+      </c>
+      <c r="F348" t="b">
+        <v>0</v>
+      </c>
+      <c r="G348" t="b">
+        <v>0</v>
+      </c>
+      <c r="H348" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
@@ -6014,7 +10198,7 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C349" t="b">
         <v>0</v>
@@ -6022,6 +10206,18 @@
       <c r="D349" t="n">
         <v>0.7062475875020027</v>
       </c>
+      <c r="E349" t="b">
+        <v>0</v>
+      </c>
+      <c r="F349" t="b">
+        <v>0</v>
+      </c>
+      <c r="G349" t="b">
+        <v>0</v>
+      </c>
+      <c r="H349" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
@@ -6030,7 +10226,7 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C350" t="b">
         <v>0</v>
@@ -6038,6 +10234,18 @@
       <c r="D350" t="n">
         <v>0.6289144206316547</v>
       </c>
+      <c r="E350" t="b">
+        <v>0</v>
+      </c>
+      <c r="F350" t="b">
+        <v>0</v>
+      </c>
+      <c r="G350" t="b">
+        <v>0</v>
+      </c>
+      <c r="H350" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
@@ -6046,7 +10254,7 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C351" t="b">
         <v>0</v>
@@ -6054,6 +10262,18 @@
       <c r="D351" t="n">
         <v>0.4427076591354971</v>
       </c>
+      <c r="E351" t="b">
+        <v>0</v>
+      </c>
+      <c r="F351" t="b">
+        <v>0</v>
+      </c>
+      <c r="G351" t="b">
+        <v>0</v>
+      </c>
+      <c r="H351" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
@@ -6062,7 +10282,7 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C352" t="b">
         <v>0</v>
@@ -6070,6 +10290,18 @@
       <c r="D352" t="n">
         <v>0.4080534136827877</v>
       </c>
+      <c r="E352" t="b">
+        <v>0</v>
+      </c>
+      <c r="F352" t="b">
+        <v>0</v>
+      </c>
+      <c r="G352" t="b">
+        <v>0</v>
+      </c>
+      <c r="H352" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
@@ -6078,7 +10310,7 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C353" t="b">
         <v>1</v>
@@ -6086,6 +10318,18 @@
       <c r="D353" t="n">
         <v>0.1308075642727058</v>
       </c>
+      <c r="E353" t="b">
+        <v>0</v>
+      </c>
+      <c r="F353" t="b">
+        <v>0</v>
+      </c>
+      <c r="G353" t="b">
+        <v>0</v>
+      </c>
+      <c r="H353" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
@@ -6094,7 +10338,7 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C354" t="b">
         <v>0</v>
@@ -6102,6 +10346,18 @@
       <c r="D354" t="n">
         <v>0.3032077473277847</v>
       </c>
+      <c r="E354" t="b">
+        <v>0</v>
+      </c>
+      <c r="F354" t="b">
+        <v>0</v>
+      </c>
+      <c r="G354" t="b">
+        <v>0</v>
+      </c>
+      <c r="H354" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
@@ -6110,7 +10366,7 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C355" t="b">
         <v>0</v>
@@ -6118,6 +10374,18 @@
       <c r="D355" t="n">
         <v>0.05800304601767233</v>
       </c>
+      <c r="E355" t="b">
+        <v>0</v>
+      </c>
+      <c r="F355" t="b">
+        <v>0</v>
+      </c>
+      <c r="G355" t="b">
+        <v>0</v>
+      </c>
+      <c r="H355" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
@@ -6126,7 +10394,7 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C356" t="b">
         <v>0</v>
@@ -6134,6 +10402,18 @@
       <c r="D356" t="n">
         <v>0.04259641468524933</v>
       </c>
+      <c r="E356" t="b">
+        <v>0</v>
+      </c>
+      <c r="F356" t="b">
+        <v>0</v>
+      </c>
+      <c r="G356" t="b">
+        <v>0</v>
+      </c>
+      <c r="H356" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
@@ -6142,13 +10422,157 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C357" t="b">
         <v>0</v>
       </c>
       <c r="D357" t="n">
         <v>0.1079030486998027</v>
+      </c>
+      <c r="E357" t="b">
+        <v>0</v>
+      </c>
+      <c r="F357" t="b">
+        <v>0</v>
+      </c>
+      <c r="G357" t="b">
+        <v>0</v>
+      </c>
+      <c r="H357" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="inlineStr">
+        <is>
+          <t>5j8p_0-B</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr"/>
+      <c r="C358" t="inlineStr"/>
+      <c r="D358" t="inlineStr"/>
+      <c r="E358" t="b">
+        <v>0</v>
+      </c>
+      <c r="F358" t="b">
+        <v>0</v>
+      </c>
+      <c r="G358" t="b">
+        <v>0</v>
+      </c>
+      <c r="H358" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="inlineStr">
+        <is>
+          <t>5jby_0-F</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr"/>
+      <c r="C359" t="inlineStr"/>
+      <c r="D359" t="inlineStr"/>
+      <c r="E359" t="b">
+        <v>0</v>
+      </c>
+      <c r="F359" t="b">
+        <v>0</v>
+      </c>
+      <c r="G359" t="b">
+        <v>0</v>
+      </c>
+      <c r="H359" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="inlineStr">
+        <is>
+          <t>5u4p_0-B-2</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr"/>
+      <c r="C360" t="inlineStr"/>
+      <c r="D360" t="inlineStr"/>
+      <c r="E360" t="b">
+        <v>0</v>
+      </c>
+      <c r="F360" t="b">
+        <v>0</v>
+      </c>
+      <c r="G360" t="b">
+        <v>0</v>
+      </c>
+      <c r="H360" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="inlineStr">
+        <is>
+          <t>6h4h_0-B-2</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr"/>
+      <c r="C361" t="inlineStr"/>
+      <c r="D361" t="inlineStr"/>
+      <c r="E361" t="b">
+        <v>0</v>
+      </c>
+      <c r="F361" t="b">
+        <v>0</v>
+      </c>
+      <c r="G361" t="b">
+        <v>0</v>
+      </c>
+      <c r="H361" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="inlineStr">
+        <is>
+          <t>6mse_0-v</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr"/>
+      <c r="C362" t="inlineStr"/>
+      <c r="D362" t="inlineStr"/>
+      <c r="E362" t="b">
+        <v>0</v>
+      </c>
+      <c r="F362" t="b">
+        <v>0</v>
+      </c>
+      <c r="G362" t="b">
+        <v>0</v>
+      </c>
+      <c r="H362" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="inlineStr">
+        <is>
+          <t>7w39_0-v</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr"/>
+      <c r="C363" t="inlineStr"/>
+      <c r="D363" t="inlineStr"/>
+      <c r="E363" t="b">
+        <v>0</v>
+      </c>
+      <c r="F363" t="b">
+        <v>0</v>
+      </c>
+      <c r="G363" t="b">
+        <v>0</v>
+      </c>
+      <c r="H363" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
